--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1544902.70243493</v>
+        <v>1540501.513077768</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13513019.5940009</v>
+        <v>13513019.59400089</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7267058.602073407</v>
+        <v>7267058.602073406</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6723838.268957461</v>
+        <v>6723838.268957459</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>21.89603682979959</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.9149283803722</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4022345988317</v>
+        <v>169.1947653541219</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>78.13211994615452</v>
       </c>
       <c r="I12" t="n">
-        <v>15.80245048970759</v>
+        <v>15.80245048970764</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>144.2887390241497</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>107.5319498182078</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>86.43188462317242</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>186.745648044267</v>
@@ -1584,13 +1584,13 @@
         <v>229.9190500356943</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>170.4298853374473</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H14" t="n">
-        <v>277.6240450902633</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>253.0514971994132</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>243.8899248651198</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1700,7 +1700,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8981073592315</v>
+        <v>117.8981073592314</v>
       </c>
       <c r="H15" t="n">
         <v>78.13211994615452</v>
@@ -1742,7 +1742,7 @@
         <v>171.3400162880664</v>
       </c>
       <c r="U15" t="n">
-        <v>207.89928080988</v>
+        <v>207.8992808098798</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>180.1425756348825</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>86.43188462317242</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>186.745648044267</v>
       </c>
       <c r="T16" t="n">
-        <v>229.9190500356943</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -1833,7 +1833,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.4532465875461</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>15.00734418130848</v>
       </c>
       <c r="G17" t="n">
-        <v>407.2348145777002</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>302.4457255346815</v>
       </c>
       <c r="I17" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>123.9149283803722</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.4022345988317</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>126.4814406657473</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -1943,7 +1943,7 @@
         <v>78.13211994615452</v>
       </c>
       <c r="I18" t="n">
-        <v>15.80245048970759</v>
+        <v>15.8024504897072</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>165.7657490199469</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I19" t="n">
         <v>107.5319498182078</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>86.43188462317242</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>186.745648044267</v>
       </c>
       <c r="T19" t="n">
-        <v>229.9190500356943</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5404530582489</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>223.0744824084601</v>
       </c>
       <c r="Y19" t="n">
-        <v>74.69443443676778</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>302.4457255346815</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>112.9619265937146</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0514971994132</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>242.0447386098724</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2216,7 +2216,7 @@
         <v>171.3400162880664</v>
       </c>
       <c r="U21" t="n">
-        <v>207.89928080988</v>
+        <v>207.8992808098796</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>65.41126469465927</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.7657490199469</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>86.43188462317242</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.745648044267</v>
       </c>
       <c r="T22" t="n">
         <v>229.9190500356943</v>
@@ -2298,13 +2298,13 @@
         <v>282.5404530582489</v>
       </c>
       <c r="V22" t="n">
-        <v>213.2193568600859</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>339.7744787952988</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>302.4457255346815</v>
+        <v>9.649881015406413</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0514971994132</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -2487,10 +2487,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>36.24253413647443</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>165.7657490199469</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>186.745648044267</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>282.5404530582489</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>217.6879328294829</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>221.4269508842118</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.70137418775225</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.9149283803722</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.4022345988317</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>309.0251426340855</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>156.4234916663839</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>143.3049299308861</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>107.5319498182078</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.745648044267</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>229.9190500356943</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>131.9231846791846</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>123.9149283803722</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4022345988317</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0514971994132</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2857,10 +2857,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>174.1784950157044</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>78.58824297173044</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.745648044267</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.9190500356943</v>
+        <v>217.4363780574044</v>
       </c>
       <c r="U31" t="n">
         <v>282.5404530582489</v>
@@ -3012,13 +3012,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H32" t="n">
         <v>302.4457255346815</v>
       </c>
       <c r="I32" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.9149283803722</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>253.0514971994132</v>
       </c>
       <c r="V32" t="n">
-        <v>288.6346687069865</v>
+        <v>63.29123633047317</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -3198,16 +3198,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.7657490199469</v>
       </c>
       <c r="H34" t="n">
-        <v>146.7597880182415</v>
+        <v>5.768135580699035</v>
       </c>
       <c r="I34" t="n">
-        <v>107.5319498182078</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>86.43188462317242</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>186.745648044267</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.9190500356943</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>27.69631011046168</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>302.4457255346815</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.70137418775225</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.9149283803722</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.4022345988317</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0514971994132</v>
+        <v>164.0096878736948</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>171.4452558545258</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3401,7 +3401,7 @@
         <v>171.3400162880664</v>
       </c>
       <c r="U36" t="n">
-        <v>207.89928080988</v>
+        <v>207.8992808098803</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.7657490199469</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>107.5319498182078</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>86.43188462317242</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.9190500356943</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V37" t="n">
-        <v>163.3071161316804</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>126.0924571401166</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>303.5344631264635</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>302.4457255346815</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>63.55411566901401</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0514971994132</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3635,10 +3635,10 @@
         <v>115.7291292324105</v>
       </c>
       <c r="T39" t="n">
-        <v>171.3400162880664</v>
+        <v>171.3400162880666</v>
       </c>
       <c r="U39" t="n">
-        <v>207.89928080988</v>
+        <v>207.8992808098798</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>10.18653954649181</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H40" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>107.5319498182078</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>186.745648044267</v>
       </c>
       <c r="T40" t="n">
-        <v>224.4680733454136</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -3726,7 +3726,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>230.0016600906987</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>407.2348145777002</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>248.0766262558881</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3878,7 +3878,7 @@
         <v>207.89928080988</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126441</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
         <v>227.816073408046</v>
@@ -3900,22 +3900,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.43188462317242</v>
+        <v>86.43188462317241</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>186.745648044267</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>144.361967187387</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>142.0942715021685</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>302.4457255346815</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.70137418775225</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.9149283803722</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.4022345988317</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.0514971994132</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>115.6948541032422</v>
+        <v>3.376759492722722</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802216</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
@@ -4121,7 +4121,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>187.4140068734884</v>
       </c>
       <c r="Y45" t="n">
         <v>177.5210747552478</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -4152,10 +4152,10 @@
         <v>165.7657490199469</v>
       </c>
       <c r="H46" t="n">
-        <v>82.37830298230796</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>107.5319498182078</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>81.97786518735133</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>186.745648044267</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>872.1233932867021</v>
+        <v>1235.447313151045</v>
       </c>
       <c r="C11" t="n">
-        <v>478.9478917896327</v>
+        <v>842.2718116539754</v>
       </c>
       <c r="D11" t="n">
         <v>456.8306828706432</v>
@@ -5041,22 +5041,22 @@
         <v>45.48238531741068</v>
       </c>
       <c r="J11" t="n">
-        <v>341.0674123654735</v>
+        <v>79.91459989372279</v>
       </c>
       <c r="K11" t="n">
-        <v>425.6524132444051</v>
+        <v>642.7591181966799</v>
       </c>
       <c r="L11" t="n">
-        <v>554.5737315597923</v>
+        <v>771.6804365120671</v>
       </c>
       <c r="M11" t="n">
-        <v>718.6086730029797</v>
+        <v>1013.135382772855</v>
       </c>
       <c r="N11" t="n">
-        <v>888.2968467382104</v>
+        <v>1182.823556508086</v>
       </c>
       <c r="O11" t="n">
-        <v>1451.141365041168</v>
+        <v>1334.387367365322</v>
       </c>
       <c r="P11" t="n">
         <v>1897.231885668279</v>
@@ -5068,25 +5068,25 @@
         <v>2274.119265870534</v>
       </c>
       <c r="S11" t="n">
-        <v>2274.119265870534</v>
+        <v>2148.952671546926</v>
       </c>
       <c r="T11" t="n">
-        <v>2058.561453144441</v>
+        <v>1978.048868158924</v>
       </c>
       <c r="U11" t="n">
-        <v>2058.561453144441</v>
+        <v>1978.048868158924</v>
       </c>
       <c r="V11" t="n">
-        <v>2058.561453144441</v>
+        <v>1635.942058862442</v>
       </c>
       <c r="W11" t="n">
-        <v>2058.561453144441</v>
+        <v>1635.942058862442</v>
       </c>
       <c r="X11" t="n">
-        <v>1669.108848077498</v>
+        <v>1635.942058862442</v>
       </c>
       <c r="Y11" t="n">
-        <v>1272.618138998099</v>
+        <v>1635.942058862442</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>140.3657897980795</v>
       </c>
       <c r="H12" t="n">
-        <v>61.44445651913552</v>
+        <v>61.44445651913557</v>
       </c>
       <c r="I12" t="n">
         <v>45.48238531741068</v>
       </c>
       <c r="J12" t="n">
-        <v>248.4933708924599</v>
+        <v>248.49337089246</v>
       </c>
       <c r="K12" t="n">
-        <v>313.4389930714536</v>
+        <v>313.4389930714537</v>
       </c>
       <c r="L12" t="n">
-        <v>430.876048629542</v>
+        <v>430.8760486295421</v>
       </c>
       <c r="M12" t="n">
-        <v>993.7205669324991</v>
+        <v>594.0201571004443</v>
       </c>
       <c r="N12" t="n">
-        <v>1259.968876021964</v>
+        <v>756.9713862358392</v>
       </c>
       <c r="O12" t="n">
-        <v>1822.813394324921</v>
+        <v>1319.815904538796</v>
       </c>
       <c r="P12" t="n">
-        <v>1918.295872395896</v>
+        <v>1882.660422841753</v>
       </c>
       <c r="Q12" t="n">
-        <v>2274.119265870534</v>
+        <v>2238.483816316392</v>
       </c>
       <c r="R12" t="n">
         <v>2274.119265870534</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>191.2285863519053</v>
+        <v>1038.694032044103</v>
       </c>
       <c r="C13" t="n">
-        <v>191.2285863519053</v>
+        <v>868.4889141100921</v>
       </c>
       <c r="D13" t="n">
-        <v>191.2285863519053</v>
+        <v>868.4889141100921</v>
       </c>
       <c r="E13" t="n">
-        <v>191.2285863519053</v>
+        <v>868.4889141100921</v>
       </c>
       <c r="F13" t="n">
-        <v>191.2285863519053</v>
+        <v>868.4889141100921</v>
       </c>
       <c r="G13" t="n">
-        <v>45.48238531741068</v>
+        <v>868.4889141100921</v>
       </c>
       <c r="H13" t="n">
-        <v>45.48238531741068</v>
+        <v>720.2467039906562</v>
       </c>
       <c r="I13" t="n">
-        <v>45.48238531741068</v>
+        <v>611.6285728611534</v>
       </c>
       <c r="J13" t="n">
-        <v>72.10650628172073</v>
+        <v>638.2526938254634</v>
       </c>
       <c r="K13" t="n">
-        <v>246.6205619627225</v>
+        <v>812.7667495064653</v>
       </c>
       <c r="L13" t="n">
-        <v>529.3454322195516</v>
+        <v>1095.491619763294</v>
       </c>
       <c r="M13" t="n">
-        <v>840.6811614380024</v>
+        <v>1406.827348981745</v>
       </c>
       <c r="N13" t="n">
-        <v>1145.941675928887</v>
+        <v>1712.08786347263</v>
       </c>
       <c r="O13" t="n">
-        <v>1421.398658819644</v>
+        <v>1987.544846363387</v>
       </c>
       <c r="P13" t="n">
-        <v>1637.753823802277</v>
+        <v>2203.90001134602</v>
       </c>
       <c r="Q13" t="n">
-        <v>1707.973078326791</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="R13" t="n">
-        <v>1620.66814436399</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="S13" t="n">
-        <v>1432.036176642509</v>
+        <v>2085.487298149052</v>
       </c>
       <c r="T13" t="n">
-        <v>1199.794711959989</v>
+        <v>1853.245833466533</v>
       </c>
       <c r="U13" t="n">
-        <v>914.4003149314547</v>
+        <v>1853.245833466533</v>
       </c>
       <c r="V13" t="n">
-        <v>648.4209697522789</v>
+        <v>1853.245833466533</v>
       </c>
       <c r="W13" t="n">
-        <v>648.4209697522789</v>
+        <v>1681.094434135778</v>
       </c>
       <c r="X13" t="n">
-        <v>414.340647535262</v>
+        <v>1447.014111918761</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.2285863519053</v>
+        <v>1223.902050735404</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>394.2959401436891</v>
+        <v>850.0061843677126</v>
       </c>
       <c r="C14" t="n">
-        <v>394.2959401436891</v>
+        <v>456.8306828706432</v>
       </c>
       <c r="D14" t="n">
-        <v>394.2959401436891</v>
+        <v>456.8306828706432</v>
       </c>
       <c r="E14" t="n">
-        <v>394.2959401436891</v>
+        <v>456.8306828706432</v>
       </c>
       <c r="F14" t="n">
-        <v>394.2959401436891</v>
+        <v>456.8306828706432</v>
       </c>
       <c r="G14" t="n">
-        <v>394.2959401436891</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="H14" t="n">
-        <v>113.8676117696857</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="I14" t="n">
         <v>45.48238531741068</v>
@@ -5287,13 +5287,13 @@
         <v>988.4969315473622</v>
       </c>
       <c r="M14" t="n">
-        <v>1551.341449850319</v>
+        <v>1152.53187299055</v>
       </c>
       <c r="N14" t="n">
-        <v>1892.164352060466</v>
+        <v>1322.22004672578</v>
       </c>
       <c r="O14" t="n">
-        <v>2043.728162917702</v>
+        <v>1885.064565028737</v>
       </c>
       <c r="P14" t="n">
         <v>2150.658718373338</v>
@@ -5314,16 +5314,16 @@
         <v>1893.345098618225</v>
       </c>
       <c r="V14" t="n">
-        <v>1551.238289321744</v>
+        <v>1893.345098618225</v>
       </c>
       <c r="W14" t="n">
-        <v>1180.239254290031</v>
+        <v>1893.345098618225</v>
       </c>
       <c r="X14" t="n">
-        <v>790.7866492230879</v>
+        <v>1646.991639158508</v>
       </c>
       <c r="Y14" t="n">
-        <v>394.2959401436891</v>
+        <v>1250.50093007911</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>801.0762819550446</v>
+        <v>801.0762819550445</v>
       </c>
       <c r="C15" t="n">
         <v>650.4220515151367</v>
       </c>
       <c r="D15" t="n">
-        <v>520.3330841366169</v>
+        <v>520.333084136617</v>
       </c>
       <c r="E15" t="n">
-        <v>383.8865932475046</v>
+        <v>383.8865932475047</v>
       </c>
       <c r="F15" t="n">
-        <v>259.4547871306363</v>
+        <v>259.4547871306365</v>
       </c>
       <c r="G15" t="n">
-        <v>140.3657897980793</v>
+        <v>140.3657897980795</v>
       </c>
       <c r="H15" t="n">
-        <v>61.44445651913553</v>
+        <v>61.44445651913552</v>
       </c>
       <c r="I15" t="n">
         <v>45.48238531741068</v>
       </c>
       <c r="J15" t="n">
-        <v>53.75837591273252</v>
+        <v>248.49337089246</v>
       </c>
       <c r="K15" t="n">
-        <v>118.7039980917263</v>
+        <v>721.8791051136802</v>
       </c>
       <c r="L15" t="n">
-        <v>236.1410536498146</v>
+        <v>872.613533730118</v>
       </c>
       <c r="M15" t="n">
-        <v>385.7665226500168</v>
+        <v>1022.23900273032</v>
       </c>
       <c r="N15" t="n">
-        <v>792.6068357899815</v>
+        <v>1185.190231865715</v>
       </c>
       <c r="O15" t="n">
-        <v>1355.451354092939</v>
+        <v>1319.815904538796</v>
       </c>
       <c r="P15" t="n">
-        <v>1918.295872395896</v>
+        <v>1882.660422841753</v>
       </c>
       <c r="Q15" t="n">
-        <v>2274.119265870534</v>
+        <v>2238.483816316392</v>
       </c>
       <c r="R15" t="n">
         <v>2274.119265870534</v>
@@ -5402,7 +5402,7 @@
         <v>1132.186833320499</v>
       </c>
       <c r="Y15" t="n">
-        <v>952.8726163960059</v>
+        <v>952.8726163960058</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="C16" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="D16" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="E16" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="F16" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="G16" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="H16" t="n">
         <v>45.48238531741068</v>
@@ -5460,28 +5460,28 @@
         <v>1707.973078326791</v>
       </c>
       <c r="R16" t="n">
-        <v>1620.66814436399</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="S16" t="n">
-        <v>1432.036176642509</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="T16" t="n">
-        <v>1199.794711959989</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="U16" t="n">
-        <v>1199.794711959989</v>
+        <v>1233.946713576775</v>
       </c>
       <c r="V16" t="n">
-        <v>933.8153667808132</v>
+        <v>967.967368397599</v>
       </c>
       <c r="W16" t="n">
-        <v>650.4849647119909</v>
+        <v>684.6369663287767</v>
       </c>
       <c r="X16" t="n">
-        <v>416.4046424949739</v>
+        <v>450.5566441117597</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.7245954368466</v>
+        <v>227.4445829284031</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1650.194605539711</v>
+        <v>1161.901078077723</v>
       </c>
       <c r="C17" t="n">
-        <v>1650.194605539711</v>
+        <v>768.725576580654</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.194605539711</v>
+        <v>768.725576580654</v>
       </c>
       <c r="E17" t="n">
-        <v>1247.611080656255</v>
+        <v>366.1420516971985</v>
       </c>
       <c r="F17" t="n">
-        <v>830.7166421862329</v>
+        <v>350.9831181807253</v>
       </c>
       <c r="G17" t="n">
-        <v>419.3683446330003</v>
+        <v>350.9831181807253</v>
       </c>
       <c r="H17" t="n">
-        <v>113.8676117696857</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="I17" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="J17" t="n">
-        <v>79.91459989372277</v>
+        <v>79.91459989372279</v>
       </c>
       <c r="K17" t="n">
-        <v>164.4996007726543</v>
+        <v>164.4996007726544</v>
       </c>
       <c r="L17" t="n">
-        <v>429.6670468789284</v>
+        <v>727.3441190756115</v>
       </c>
       <c r="M17" t="n">
-        <v>992.5115651818855</v>
+        <v>1290.188637378569</v>
       </c>
       <c r="N17" t="n">
-        <v>1555.356083484843</v>
+        <v>1853.033155681526</v>
       </c>
       <c r="O17" t="n">
-        <v>2118.2006017878</v>
+        <v>2004.596966538762</v>
       </c>
       <c r="P17" t="n">
-        <v>2225.131157243436</v>
+        <v>2111.527521994398</v>
       </c>
       <c r="Q17" t="n">
         <v>2274.119265870534</v>
@@ -5545,22 +5545,22 @@
         <v>2148.952671546926</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.952671546926</v>
+        <v>1933.394858820833</v>
       </c>
       <c r="U17" t="n">
-        <v>2148.952671546926</v>
+        <v>1933.394858820833</v>
       </c>
       <c r="V17" t="n">
-        <v>2021.193640571423</v>
+        <v>1933.394858820833</v>
       </c>
       <c r="W17" t="n">
-        <v>1650.194605539711</v>
+        <v>1562.39582378912</v>
       </c>
       <c r="X17" t="n">
-        <v>1650.194605539711</v>
+        <v>1562.39582378912</v>
       </c>
       <c r="Y17" t="n">
-        <v>1650.194605539711</v>
+        <v>1562.39582378912</v>
       </c>
     </row>
     <row r="18">
@@ -5570,61 +5570,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>801.0762819550446</v>
+        <v>801.0762819550441</v>
       </c>
       <c r="C18" t="n">
-        <v>650.4220515151367</v>
+        <v>650.4220515151363</v>
       </c>
       <c r="D18" t="n">
-        <v>520.3330841366171</v>
+        <v>520.3330841366167</v>
       </c>
       <c r="E18" t="n">
-        <v>383.8865932475048</v>
+        <v>383.8865932475044</v>
       </c>
       <c r="F18" t="n">
-        <v>259.4547871306365</v>
+        <v>259.4547871306362</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3657897980796</v>
+        <v>140.3657897980791</v>
       </c>
       <c r="H18" t="n">
-        <v>61.44445651913566</v>
+        <v>61.44445651913512</v>
       </c>
       <c r="I18" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="J18" t="n">
-        <v>248.4933708924599</v>
+        <v>53.75837591273253</v>
       </c>
       <c r="K18" t="n">
-        <v>721.8791051136801</v>
+        <v>527.1441101339527</v>
       </c>
       <c r="L18" t="n">
-        <v>872.613533730118</v>
+        <v>804.4735008336295</v>
       </c>
       <c r="M18" t="n">
-        <v>1022.23900273032</v>
+        <v>954.0989698338317</v>
       </c>
       <c r="N18" t="n">
-        <v>1185.190231865715</v>
+        <v>1117.050198969227</v>
       </c>
       <c r="O18" t="n">
-        <v>1319.815904538796</v>
+        <v>1679.894717272184</v>
       </c>
       <c r="P18" t="n">
-        <v>1882.660422841753</v>
+        <v>2242.739235575141</v>
       </c>
       <c r="Q18" t="n">
-        <v>2238.483816316392</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="R18" t="n">
         <v>2274.119265870534</v>
       </c>
       <c r="S18" t="n">
-        <v>2157.221155534766</v>
+        <v>2157.221155534765</v>
       </c>
       <c r="T18" t="n">
-        <v>1984.150432011467</v>
+        <v>1984.150432011466</v>
       </c>
       <c r="U18" t="n">
         <v>1774.151158466133</v>
@@ -5633,13 +5633,13 @@
         <v>1551.6111568372</v>
       </c>
       <c r="W18" t="n">
-        <v>1321.493910970487</v>
+        <v>1321.493910970486</v>
       </c>
       <c r="X18" t="n">
-        <v>1132.186833320499</v>
+        <v>1132.186833320498</v>
       </c>
       <c r="Y18" t="n">
-        <v>952.8726163960059</v>
+        <v>952.8726163960055</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.5406669721125</v>
+        <v>785.5068923848725</v>
       </c>
       <c r="C19" t="n">
-        <v>321.5406669721125</v>
+        <v>615.3017744508617</v>
       </c>
       <c r="D19" t="n">
-        <v>321.5406669721125</v>
+        <v>459.6686613533764</v>
       </c>
       <c r="E19" t="n">
-        <v>321.5406669721125</v>
+        <v>459.6686613533764</v>
       </c>
       <c r="F19" t="n">
-        <v>321.5406669721125</v>
+        <v>302.3427265663494</v>
       </c>
       <c r="G19" t="n">
-        <v>154.1005164469135</v>
+        <v>302.3427265663494</v>
       </c>
       <c r="H19" t="n">
         <v>154.1005164469135</v>
       </c>
       <c r="I19" t="n">
-        <v>45.48238531741068</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="J19" t="n">
         <v>72.10650628172073</v>
@@ -5697,28 +5697,28 @@
         <v>1707.973078326791</v>
       </c>
       <c r="R19" t="n">
-        <v>1620.66814436399</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="S19" t="n">
-        <v>1432.036176642509</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="T19" t="n">
-        <v>1199.794711959989</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="U19" t="n">
-        <v>914.4003149314547</v>
+        <v>1233.946713576775</v>
       </c>
       <c r="V19" t="n">
-        <v>914.4003149314547</v>
+        <v>1233.946713576775</v>
       </c>
       <c r="W19" t="n">
-        <v>631.0699128626322</v>
+        <v>1233.946713576775</v>
       </c>
       <c r="X19" t="n">
-        <v>396.9895906456153</v>
+        <v>1008.618953568229</v>
       </c>
       <c r="Y19" t="n">
-        <v>321.5406669721125</v>
+        <v>785.5068923848725</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1258.135850167958</v>
+        <v>736.4242469640576</v>
       </c>
       <c r="C20" t="n">
-        <v>864.9603486708884</v>
+        <v>736.4242469640576</v>
       </c>
       <c r="D20" t="n">
-        <v>864.9603486708884</v>
+        <v>350.9831181807253</v>
       </c>
       <c r="E20" t="n">
-        <v>462.376823787433</v>
+        <v>350.9831181807253</v>
       </c>
       <c r="F20" t="n">
-        <v>45.48238531741069</v>
+        <v>350.9831181807253</v>
       </c>
       <c r="G20" t="n">
-        <v>45.48238531741069</v>
+        <v>350.9831181807253</v>
       </c>
       <c r="H20" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="I20" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="J20" t="n">
-        <v>341.0674123654735</v>
+        <v>79.91459989372279</v>
       </c>
       <c r="K20" t="n">
-        <v>425.6524132444051</v>
+        <v>164.4996007726544</v>
       </c>
       <c r="L20" t="n">
-        <v>988.4969315473622</v>
+        <v>727.3441190756115</v>
       </c>
       <c r="M20" t="n">
-        <v>1469.049345620177</v>
+        <v>1290.188637378569</v>
       </c>
       <c r="N20" t="n">
-        <v>1638.737519355408</v>
+        <v>1853.033155681526</v>
       </c>
       <c r="O20" t="n">
-        <v>1790.301330212644</v>
+        <v>2004.596966538762</v>
       </c>
       <c r="P20" t="n">
-        <v>1897.23188566828</v>
+        <v>2111.527521994398</v>
       </c>
       <c r="Q20" t="n">
         <v>2274.119265870534</v>
@@ -5782,22 +5782,22 @@
         <v>2274.119265870534</v>
       </c>
       <c r="T20" t="n">
-        <v>2274.119265870534</v>
+        <v>2160.016309715266</v>
       </c>
       <c r="U20" t="n">
-        <v>2274.119265870534</v>
+        <v>1904.408736786566</v>
       </c>
       <c r="V20" t="n">
-        <v>2274.119265870534</v>
+        <v>1904.408736786566</v>
       </c>
       <c r="W20" t="n">
-        <v>1903.120230838822</v>
+        <v>1533.409701754853</v>
       </c>
       <c r="X20" t="n">
-        <v>1658.630595879355</v>
+        <v>1533.409701754853</v>
       </c>
       <c r="Y20" t="n">
-        <v>1658.630595879355</v>
+        <v>1136.918992675455</v>
       </c>
     </row>
     <row r="21">
@@ -5807,61 +5807,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>801.076281955045</v>
+        <v>801.0762819550446</v>
       </c>
       <c r="C21" t="n">
-        <v>650.4220515151371</v>
+        <v>650.4220515151367</v>
       </c>
       <c r="D21" t="n">
-        <v>520.3330841366173</v>
+        <v>520.333084136617</v>
       </c>
       <c r="E21" t="n">
-        <v>383.8865932475051</v>
+        <v>383.8865932475048</v>
       </c>
       <c r="F21" t="n">
-        <v>259.4547871306368</v>
+        <v>259.4547871306366</v>
       </c>
       <c r="G21" t="n">
-        <v>140.3657897980797</v>
+        <v>140.3657897980795</v>
       </c>
       <c r="H21" t="n">
-        <v>61.44445651913554</v>
+        <v>61.44445651913551</v>
       </c>
       <c r="I21" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="J21" t="n">
-        <v>248.4933708924599</v>
+        <v>248.49337089246</v>
       </c>
       <c r="K21" t="n">
-        <v>721.8791051136801</v>
+        <v>721.8791051136802</v>
       </c>
       <c r="L21" t="n">
-        <v>1284.723623416637</v>
+        <v>839.3161606717686</v>
       </c>
       <c r="M21" t="n">
-        <v>1434.34909241684</v>
+        <v>1089.70775379474</v>
       </c>
       <c r="N21" t="n">
-        <v>1688.18772165184</v>
+        <v>1652.552272097697</v>
       </c>
       <c r="O21" t="n">
-        <v>1822.813394324921</v>
+        <v>1787.177944770778</v>
       </c>
       <c r="P21" t="n">
-        <v>1918.295872395896</v>
+        <v>1882.660422841753</v>
       </c>
       <c r="Q21" t="n">
-        <v>2274.119265870534</v>
+        <v>2238.483816316391</v>
       </c>
       <c r="R21" t="n">
         <v>2274.119265870534</v>
       </c>
       <c r="S21" t="n">
-        <v>2157.221155534766</v>
+        <v>2157.221155534765</v>
       </c>
       <c r="T21" t="n">
-        <v>1984.150432011467</v>
+        <v>1984.150432011466</v>
       </c>
       <c r="U21" t="n">
         <v>1774.151158466133</v>
@@ -5876,7 +5876,7 @@
         <v>1132.186833320499</v>
       </c>
       <c r="Y21" t="n">
-        <v>952.8726163960064</v>
+        <v>952.8726163960059</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>370.2484706296367</v>
+        <v>267.1874829549558</v>
       </c>
       <c r="C22" t="n">
-        <v>370.2484706296367</v>
+        <v>201.1154984148959</v>
       </c>
       <c r="D22" t="n">
-        <v>370.2484706296367</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="E22" t="n">
-        <v>370.2484706296367</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="F22" t="n">
-        <v>212.9225358426096</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="G22" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="H22" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="I22" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741067</v>
       </c>
       <c r="J22" t="n">
         <v>72.10650628172073</v>
@@ -5934,28 +5934,28 @@
         <v>1707.973078326791</v>
       </c>
       <c r="R22" t="n">
-        <v>1620.66814436399</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="S22" t="n">
-        <v>1620.66814436399</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="T22" t="n">
-        <v>1388.426679681471</v>
+        <v>1287.099645922789</v>
       </c>
       <c r="U22" t="n">
-        <v>1103.032282652937</v>
+        <v>1001.705248894255</v>
       </c>
       <c r="V22" t="n">
-        <v>887.6591949154761</v>
+        <v>735.7259037150794</v>
       </c>
       <c r="W22" t="n">
-        <v>604.3287928466536</v>
+        <v>452.3955016462571</v>
       </c>
       <c r="X22" t="n">
-        <v>370.2484706296367</v>
+        <v>452.3955016462571</v>
       </c>
       <c r="Y22" t="n">
-        <v>370.2484706296367</v>
+        <v>452.3955016462571</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1513.667625771879</v>
+        <v>857.5653071317818</v>
       </c>
       <c r="C23" t="n">
-        <v>1513.667625771879</v>
+        <v>857.5653071317818</v>
       </c>
       <c r="D23" t="n">
-        <v>1513.667625771879</v>
+        <v>472.1241783484495</v>
       </c>
       <c r="E23" t="n">
-        <v>1111.084100888423</v>
+        <v>472.1241783484495</v>
       </c>
       <c r="F23" t="n">
-        <v>694.1896624184009</v>
+        <v>55.22973987842727</v>
       </c>
       <c r="G23" t="n">
-        <v>350.9831181807253</v>
+        <v>55.22973987842727</v>
       </c>
       <c r="H23" t="n">
         <v>45.48238531741069</v>
@@ -5989,25 +5989,25 @@
         <v>45.48238531741069</v>
       </c>
       <c r="J23" t="n">
-        <v>79.91459989372278</v>
+        <v>341.0674123654735</v>
       </c>
       <c r="K23" t="n">
-        <v>642.75911819668</v>
+        <v>903.9119306684307</v>
       </c>
       <c r="L23" t="n">
-        <v>1205.603636499637</v>
+        <v>1305.01440417699</v>
       </c>
       <c r="M23" t="n">
-        <v>1768.448154802594</v>
+        <v>1469.049345620177</v>
       </c>
       <c r="N23" t="n">
-        <v>1966.636790930565</v>
+        <v>1638.737519355408</v>
       </c>
       <c r="O23" t="n">
-        <v>2118.2006017878</v>
+        <v>1790.301330212644</v>
       </c>
       <c r="P23" t="n">
-        <v>2225.131157243437</v>
+        <v>1897.23188566828</v>
       </c>
       <c r="Q23" t="n">
         <v>2274.119265870534</v>
@@ -6022,19 +6022,19 @@
         <v>2274.119265870534</v>
       </c>
       <c r="U23" t="n">
-        <v>2274.119265870534</v>
+        <v>2018.511692941834</v>
       </c>
       <c r="V23" t="n">
-        <v>2274.119265870534</v>
+        <v>2018.511692941834</v>
       </c>
       <c r="W23" t="n">
-        <v>1903.120230838822</v>
+        <v>1647.512657910122</v>
       </c>
       <c r="X23" t="n">
-        <v>1513.667625771879</v>
+        <v>1258.060052843179</v>
       </c>
       <c r="Y23" t="n">
-        <v>1513.667625771879</v>
+        <v>1258.060052843179</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>140.3657897980797</v>
       </c>
       <c r="H24" t="n">
-        <v>61.44445651913554</v>
+        <v>61.44445651913566</v>
       </c>
       <c r="I24" t="n">
         <v>45.48238531741069</v>
       </c>
       <c r="J24" t="n">
-        <v>53.75837591273253</v>
+        <v>248.49337089246</v>
       </c>
       <c r="K24" t="n">
-        <v>118.7039980917263</v>
+        <v>721.8791051136802</v>
       </c>
       <c r="L24" t="n">
-        <v>236.1410536498146</v>
+        <v>1284.723623416638</v>
       </c>
       <c r="M24" t="n">
-        <v>518.570231112128</v>
+        <v>1489.601042962303</v>
       </c>
       <c r="N24" t="n">
-        <v>1081.414749415085</v>
+        <v>1652.552272097698</v>
       </c>
       <c r="O24" t="n">
-        <v>1644.259267718042</v>
+        <v>1787.177944770779</v>
       </c>
       <c r="P24" t="n">
-        <v>2207.103786020999</v>
+        <v>1882.660422841754</v>
       </c>
       <c r="Q24" t="n">
         <v>2238.483816316392</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>730.9281993547763</v>
+        <v>514.0002453427205</v>
       </c>
       <c r="C25" t="n">
-        <v>560.7230814207655</v>
+        <v>514.0002453427205</v>
       </c>
       <c r="D25" t="n">
-        <v>405.0899683232803</v>
+        <v>358.3671322452352</v>
       </c>
       <c r="E25" t="n">
-        <v>249.5311561824828</v>
+        <v>202.8083201044377</v>
       </c>
       <c r="F25" t="n">
-        <v>212.9225358426096</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="G25" t="n">
         <v>45.48238531741069</v>
@@ -6147,7 +6147,7 @@
         <v>45.48238531741069</v>
       </c>
       <c r="J25" t="n">
-        <v>72.10650628172073</v>
+        <v>72.10650628172074</v>
       </c>
       <c r="K25" t="n">
         <v>246.6205619627225</v>
@@ -6174,25 +6174,25 @@
         <v>1707.973078326791</v>
       </c>
       <c r="S25" t="n">
-        <v>1707.973078326791</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="T25" t="n">
-        <v>1707.973078326791</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="U25" t="n">
-        <v>1422.578681298257</v>
+        <v>1233.946713576775</v>
       </c>
       <c r="V25" t="n">
-        <v>1422.578681298257</v>
+        <v>967.967368397599</v>
       </c>
       <c r="W25" t="n">
-        <v>1139.248279229434</v>
+        <v>748.0805675597375</v>
       </c>
       <c r="X25" t="n">
-        <v>1139.248279229434</v>
+        <v>514.0002453427205</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.1362180460776</v>
+        <v>514.0002453427205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>859.4142077540987</v>
+        <v>1536.904149741435</v>
       </c>
       <c r="C26" t="n">
-        <v>859.4142077540987</v>
+        <v>1313.240562989706</v>
       </c>
       <c r="D26" t="n">
-        <v>859.4142077540987</v>
+        <v>927.7994342063737</v>
       </c>
       <c r="E26" t="n">
-        <v>456.8306828706433</v>
+        <v>525.2159093229183</v>
       </c>
       <c r="F26" t="n">
-        <v>456.8306828706433</v>
+        <v>525.2159093229183</v>
       </c>
       <c r="G26" t="n">
-        <v>45.48238531741069</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="H26" t="n">
-        <v>45.48238531741069</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I26" t="n">
         <v>45.48238531741069</v>
       </c>
       <c r="J26" t="n">
-        <v>79.91459989372278</v>
+        <v>149.8409758195303</v>
       </c>
       <c r="K26" t="n">
-        <v>642.75911819668</v>
+        <v>234.4259766984619</v>
       </c>
       <c r="L26" t="n">
-        <v>822.8233914466551</v>
+        <v>363.3472950138491</v>
       </c>
       <c r="M26" t="n">
-        <v>1385.667909749612</v>
+        <v>527.3822364570365</v>
       </c>
       <c r="N26" t="n">
-        <v>1555.356083484843</v>
+        <v>697.0704101922673</v>
       </c>
       <c r="O26" t="n">
-        <v>2118.2006017878</v>
+        <v>1259.914928495225</v>
       </c>
       <c r="P26" t="n">
-        <v>2225.131157243437</v>
+        <v>1822.759446798182</v>
       </c>
       <c r="Q26" t="n">
-        <v>2274.119265870534</v>
+        <v>2199.646827000437</v>
       </c>
       <c r="R26" t="n">
         <v>2274.119265870534</v>
       </c>
       <c r="S26" t="n">
-        <v>2274.119265870534</v>
+        <v>2148.952671546926</v>
       </c>
       <c r="T26" t="n">
-        <v>2274.119265870534</v>
+        <v>1933.394858820834</v>
       </c>
       <c r="U26" t="n">
-        <v>2274.119265870534</v>
+        <v>1933.394858820834</v>
       </c>
       <c r="V26" t="n">
-        <v>1932.012456574053</v>
+        <v>1933.394858820834</v>
       </c>
       <c r="W26" t="n">
-        <v>1561.01342154234</v>
+        <v>1933.394858820834</v>
       </c>
       <c r="X26" t="n">
-        <v>1171.560816475397</v>
+        <v>1933.394858820834</v>
       </c>
       <c r="Y26" t="n">
-        <v>859.4142077540987</v>
+        <v>1536.904149741435</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>140.3657897980797</v>
       </c>
       <c r="H27" t="n">
-        <v>61.44445651913554</v>
+        <v>61.44445651913566</v>
       </c>
       <c r="I27" t="n">
         <v>45.48238531741069</v>
       </c>
       <c r="J27" t="n">
-        <v>248.4933708924599</v>
+        <v>248.49337089246</v>
       </c>
       <c r="K27" t="n">
-        <v>313.4389930714536</v>
+        <v>721.8791051136802</v>
       </c>
       <c r="L27" t="n">
-        <v>430.876048629542</v>
+        <v>908.2489832842605</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5015176297442</v>
+        <v>1057.874452284463</v>
       </c>
       <c r="N27" t="n">
-        <v>1117.050198969227</v>
+        <v>1220.825681419858</v>
       </c>
       <c r="O27" t="n">
-        <v>1679.894717272185</v>
+        <v>1355.451354092939</v>
       </c>
       <c r="P27" t="n">
-        <v>2242.739235575142</v>
+        <v>1918.295872395896</v>
       </c>
       <c r="Q27" t="n">
         <v>2274.119265870534</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>514.6778374914347</v>
+        <v>782.0171367410792</v>
       </c>
       <c r="C28" t="n">
-        <v>356.6743105556934</v>
+        <v>611.8120188070684</v>
       </c>
       <c r="D28" t="n">
-        <v>201.0411974582082</v>
+        <v>456.1789057095831</v>
       </c>
       <c r="E28" t="n">
-        <v>45.48238531741069</v>
+        <v>311.4264512339406</v>
       </c>
       <c r="F28" t="n">
-        <v>45.48238531741069</v>
+        <v>154.1005164469135</v>
       </c>
       <c r="G28" t="n">
-        <v>45.48238531741069</v>
+        <v>154.1005164469135</v>
       </c>
       <c r="H28" t="n">
-        <v>45.48238531741069</v>
+        <v>154.1005164469135</v>
       </c>
       <c r="I28" t="n">
         <v>45.48238531741069</v>
       </c>
       <c r="J28" t="n">
-        <v>72.10650628172073</v>
+        <v>72.10650628172074</v>
       </c>
       <c r="K28" t="n">
         <v>246.6205619627225</v>
@@ -6411,25 +6411,25 @@
         <v>1707.973078326791</v>
       </c>
       <c r="S28" t="n">
-        <v>1519.341110605309</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="T28" t="n">
-        <v>1287.099645922789</v>
+        <v>1475.731613644271</v>
       </c>
       <c r="U28" t="n">
-        <v>1287.099645922789</v>
+        <v>1190.337216615737</v>
       </c>
       <c r="V28" t="n">
-        <v>1021.120300743614</v>
+        <v>1190.337216615737</v>
       </c>
       <c r="W28" t="n">
-        <v>737.7898986747914</v>
+        <v>1190.337216615737</v>
       </c>
       <c r="X28" t="n">
-        <v>737.7898986747914</v>
+        <v>1190.337216615737</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.6778374914347</v>
+        <v>967.2251554323805</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.48238531741069</v>
+        <v>859.4142077540987</v>
       </c>
       <c r="C29" t="n">
-        <v>45.48238531741069</v>
+        <v>859.4142077540987</v>
       </c>
       <c r="D29" t="n">
-        <v>45.48238531741069</v>
+        <v>859.4142077540987</v>
       </c>
       <c r="E29" t="n">
-        <v>45.48238531741069</v>
+        <v>456.8306828706433</v>
       </c>
       <c r="F29" t="n">
-        <v>45.48238531741069</v>
+        <v>456.8306828706433</v>
       </c>
       <c r="G29" t="n">
         <v>45.48238531741069</v>
@@ -6469,22 +6469,22 @@
         <v>903.9119306684307</v>
       </c>
       <c r="L29" t="n">
-        <v>1176.999712904826</v>
+        <v>1032.833248983818</v>
       </c>
       <c r="M29" t="n">
-        <v>1341.034654348013</v>
+        <v>1196.868190427005</v>
       </c>
       <c r="N29" t="n">
-        <v>1510.722828083244</v>
+        <v>1366.556364162236</v>
       </c>
       <c r="O29" t="n">
-        <v>1662.286638940479</v>
+        <v>1518.120175019472</v>
       </c>
       <c r="P29" t="n">
-        <v>2225.131157243437</v>
+        <v>2080.964693322429</v>
       </c>
       <c r="Q29" t="n">
-        <v>2274.119265870534</v>
+        <v>2199.646827000437</v>
       </c>
       <c r="R29" t="n">
         <v>2274.119265870534</v>
@@ -6493,22 +6493,22 @@
         <v>2148.952671546926</v>
       </c>
       <c r="T29" t="n">
-        <v>1933.394858820833</v>
+        <v>2148.952671546926</v>
       </c>
       <c r="U29" t="n">
-        <v>1677.787285892133</v>
+        <v>2148.952671546926</v>
       </c>
       <c r="V29" t="n">
-        <v>1335.680476595652</v>
+        <v>1806.845862250445</v>
       </c>
       <c r="W29" t="n">
-        <v>964.6814415639392</v>
+        <v>1435.846827218732</v>
       </c>
       <c r="X29" t="n">
-        <v>575.228836496996</v>
+        <v>1435.846827218732</v>
       </c>
       <c r="Y29" t="n">
-        <v>178.7381274175971</v>
+        <v>1259.908953465496</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>45.48238531741069</v>
       </c>
       <c r="J30" t="n">
-        <v>53.75837591273253</v>
+        <v>248.49337089246</v>
       </c>
       <c r="K30" t="n">
-        <v>118.7039980917263</v>
+        <v>721.8791051136802</v>
       </c>
       <c r="L30" t="n">
-        <v>681.5485163946835</v>
+        <v>839.3161606717686</v>
       </c>
       <c r="M30" t="n">
-        <v>831.1739853948857</v>
+        <v>988.9416296719708</v>
       </c>
       <c r="N30" t="n">
-        <v>1394.018503697843</v>
+        <v>1151.892858807366</v>
       </c>
       <c r="O30" t="n">
-        <v>1787.177944770778</v>
+        <v>1319.815904538796</v>
       </c>
       <c r="P30" t="n">
         <v>1882.660422841753</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>452.3955016462571</v>
+        <v>528.6465511359338</v>
       </c>
       <c r="C31" t="n">
-        <v>282.1903837122463</v>
+        <v>358.441433201923</v>
       </c>
       <c r="D31" t="n">
         <v>202.8083201044377</v>
@@ -6621,7 +6621,7 @@
         <v>45.48238531741069</v>
       </c>
       <c r="J31" t="n">
-        <v>72.10650628172073</v>
+        <v>72.10650628172074</v>
       </c>
       <c r="K31" t="n">
         <v>246.6205619627225</v>
@@ -6648,25 +6648,25 @@
         <v>1707.973078326791</v>
       </c>
       <c r="S31" t="n">
-        <v>1519.341110605309</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="T31" t="n">
-        <v>1287.099645922789</v>
+        <v>1488.340373218302</v>
       </c>
       <c r="U31" t="n">
-        <v>1001.705248894255</v>
+        <v>1202.945976189767</v>
       </c>
       <c r="V31" t="n">
-        <v>735.7259037150794</v>
+        <v>936.9666310105918</v>
       </c>
       <c r="W31" t="n">
-        <v>452.3955016462571</v>
+        <v>936.9666310105918</v>
       </c>
       <c r="X31" t="n">
-        <v>452.3955016462571</v>
+        <v>936.9666310105918</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.3955016462571</v>
+        <v>713.8545698272351</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>804.8094734163326</v>
+        <v>1558.090442114483</v>
       </c>
       <c r="C32" t="n">
-        <v>804.8094734163326</v>
+        <v>1164.914940617413</v>
       </c>
       <c r="D32" t="n">
-        <v>419.3683446330003</v>
+        <v>1164.914940617413</v>
       </c>
       <c r="E32" t="n">
-        <v>419.3683446330003</v>
+        <v>762.3314157339579</v>
       </c>
       <c r="F32" t="n">
-        <v>419.3683446330003</v>
+        <v>762.3314157339579</v>
       </c>
       <c r="G32" t="n">
-        <v>419.3683446330003</v>
+        <v>350.9831181807253</v>
       </c>
       <c r="H32" t="n">
-        <v>113.8676117696857</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="I32" t="n">
         <v>45.48238531741069</v>
       </c>
       <c r="J32" t="n">
-        <v>79.91459989372278</v>
+        <v>79.91459989372281</v>
       </c>
       <c r="K32" t="n">
-        <v>642.75911819668</v>
+        <v>164.4996007726544</v>
       </c>
       <c r="L32" t="n">
-        <v>1205.603636499637</v>
+        <v>429.6670468789287</v>
       </c>
       <c r="M32" t="n">
-        <v>1768.448154802594</v>
+        <v>992.5115651818859</v>
       </c>
       <c r="N32" t="n">
-        <v>1938.136328537825</v>
+        <v>1555.356083484843</v>
       </c>
       <c r="O32" t="n">
         <v>2118.2006017878</v>
@@ -6727,25 +6727,25 @@
         <v>2274.119265870534</v>
       </c>
       <c r="S32" t="n">
-        <v>2148.952671546926</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="T32" t="n">
-        <v>2148.952671546926</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="U32" t="n">
-        <v>1893.345098618226</v>
+        <v>2018.511692941834</v>
       </c>
       <c r="V32" t="n">
-        <v>1601.794928207128</v>
+        <v>1954.581151193882</v>
       </c>
       <c r="W32" t="n">
-        <v>1601.794928207128</v>
+        <v>1954.581151193882</v>
       </c>
       <c r="X32" t="n">
-        <v>1601.794928207128</v>
+        <v>1954.581151193882</v>
       </c>
       <c r="Y32" t="n">
-        <v>1205.30421912773</v>
+        <v>1558.090442114483</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>45.48238531741069</v>
       </c>
       <c r="J33" t="n">
-        <v>248.4933708924599</v>
+        <v>248.49337089246</v>
       </c>
       <c r="K33" t="n">
-        <v>313.4389930714536</v>
+        <v>721.8791051136802</v>
       </c>
       <c r="L33" t="n">
-        <v>430.876048629542</v>
+        <v>872.6135337301178</v>
       </c>
       <c r="M33" t="n">
-        <v>697.1243577190061</v>
+        <v>1022.23900273032</v>
       </c>
       <c r="N33" t="n">
-        <v>1259.968876021963</v>
+        <v>1185.190231865715</v>
       </c>
       <c r="O33" t="n">
-        <v>1822.813394324921</v>
+        <v>1319.815904538796</v>
       </c>
       <c r="P33" t="n">
-        <v>1918.295872395896</v>
+        <v>1882.660422841753</v>
       </c>
       <c r="Q33" t="n">
-        <v>2274.119265870534</v>
+        <v>2238.483816316392</v>
       </c>
       <c r="R33" t="n">
         <v>2274.119265870534</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1519.018929497127</v>
+        <v>544.5128654938816</v>
       </c>
       <c r="C34" t="n">
-        <v>1348.813811563116</v>
+        <v>374.3077475598708</v>
       </c>
       <c r="D34" t="n">
-        <v>1348.813811563116</v>
+        <v>374.3077475598708</v>
       </c>
       <c r="E34" t="n">
-        <v>1193.254999422319</v>
+        <v>218.7489354190733</v>
       </c>
       <c r="F34" t="n">
-        <v>1035.929064635292</v>
+        <v>218.7489354190733</v>
       </c>
       <c r="G34" t="n">
-        <v>868.4889141100927</v>
+        <v>51.30878489387436</v>
       </c>
       <c r="H34" t="n">
-        <v>720.2467039906568</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="I34" t="n">
-        <v>611.6285728611539</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J34" t="n">
-        <v>638.2526938254639</v>
+        <v>72.10650628172074</v>
       </c>
       <c r="K34" t="n">
-        <v>812.7667495064658</v>
+        <v>246.6205619627225</v>
       </c>
       <c r="L34" t="n">
-        <v>1095.491619763295</v>
+        <v>529.3454322195516</v>
       </c>
       <c r="M34" t="n">
-        <v>1406.827348981746</v>
+        <v>840.6811614380024</v>
       </c>
       <c r="N34" t="n">
-        <v>1712.08786347263</v>
+        <v>1145.941675928887</v>
       </c>
       <c r="O34" t="n">
-        <v>1987.544846363387</v>
+        <v>1421.398658819644</v>
       </c>
       <c r="P34" t="n">
-        <v>2203.900011346021</v>
+        <v>1637.753823802277</v>
       </c>
       <c r="Q34" t="n">
-        <v>2274.119265870534</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="R34" t="n">
-        <v>2186.814331907734</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="S34" t="n">
-        <v>1998.182364186252</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="T34" t="n">
-        <v>1998.182364186252</v>
+        <v>1287.099645922789</v>
       </c>
       <c r="U34" t="n">
-        <v>1998.182364186252</v>
+        <v>1001.705248894255</v>
       </c>
       <c r="V34" t="n">
-        <v>1732.203019007076</v>
+        <v>1001.705248894255</v>
       </c>
       <c r="W34" t="n">
-        <v>1704.226948188428</v>
+        <v>1001.705248894255</v>
       </c>
       <c r="X34" t="n">
-        <v>1704.226948188428</v>
+        <v>767.6249266772382</v>
       </c>
       <c r="Y34" t="n">
-        <v>1704.226948188428</v>
+        <v>544.5128654938816</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>744.1586196777948</v>
+        <v>1711.962205403565</v>
       </c>
       <c r="C35" t="n">
-        <v>350.9831181807253</v>
+        <v>1318.786703906496</v>
       </c>
       <c r="D35" t="n">
-        <v>350.9831181807253</v>
+        <v>933.3455751231634</v>
       </c>
       <c r="E35" t="n">
-        <v>350.9831181807253</v>
+        <v>530.7620502397079</v>
       </c>
       <c r="F35" t="n">
-        <v>350.9831181807253</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="G35" t="n">
-        <v>350.9831181807253</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="H35" t="n">
-        <v>45.48238531741069</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I35" t="n">
         <v>45.48238531741069</v>
       </c>
       <c r="J35" t="n">
-        <v>79.91459989372278</v>
+        <v>341.0674123654735</v>
       </c>
       <c r="K35" t="n">
-        <v>164.4996007726544</v>
+        <v>903.9119306684307</v>
       </c>
       <c r="L35" t="n">
-        <v>293.4209190880416</v>
+        <v>1032.833248983818</v>
       </c>
       <c r="M35" t="n">
-        <v>457.455860531229</v>
+        <v>1196.868190427005</v>
       </c>
       <c r="N35" t="n">
-        <v>771.5428490623652</v>
+        <v>1366.556364162236</v>
       </c>
       <c r="O35" t="n">
-        <v>1334.387367365322</v>
+        <v>1715.828891342546</v>
       </c>
       <c r="P35" t="n">
-        <v>1897.23188566828</v>
+        <v>1822.759446798182</v>
       </c>
       <c r="Q35" t="n">
-        <v>2274.119265870534</v>
+        <v>2199.646827000437</v>
       </c>
       <c r="R35" t="n">
         <v>2274.119265870534</v>
       </c>
       <c r="S35" t="n">
-        <v>2148.952671546926</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="T35" t="n">
-        <v>1933.394858820833</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="U35" t="n">
-        <v>1677.787285892133</v>
+        <v>2108.452914482964</v>
       </c>
       <c r="V35" t="n">
-        <v>1677.787285892133</v>
+        <v>2108.452914482964</v>
       </c>
       <c r="W35" t="n">
-        <v>1306.788250860421</v>
+        <v>2108.452914482964</v>
       </c>
       <c r="X35" t="n">
-        <v>917.3356457934775</v>
+        <v>2108.452914482964</v>
       </c>
       <c r="Y35" t="n">
-        <v>744.1586196777948</v>
+        <v>1711.962205403565</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>801.076281955045</v>
+        <v>801.0762819550446</v>
       </c>
       <c r="C36" t="n">
-        <v>650.4220515151371</v>
+        <v>650.4220515151368</v>
       </c>
       <c r="D36" t="n">
-        <v>520.3330841366173</v>
+        <v>520.3330841366171</v>
       </c>
       <c r="E36" t="n">
-        <v>383.8865932475051</v>
+        <v>383.8865932475048</v>
       </c>
       <c r="F36" t="n">
-        <v>259.4547871306368</v>
+        <v>259.4547871306366</v>
       </c>
       <c r="G36" t="n">
-        <v>140.3657897980797</v>
+        <v>140.3657897980795</v>
       </c>
       <c r="H36" t="n">
-        <v>61.44445651913566</v>
+        <v>61.44445651913553</v>
       </c>
       <c r="I36" t="n">
         <v>45.48238531741069</v>
       </c>
       <c r="J36" t="n">
-        <v>53.75837591273253</v>
+        <v>53.75837591273254</v>
       </c>
       <c r="K36" t="n">
         <v>118.7039980917263</v>
       </c>
       <c r="L36" t="n">
-        <v>236.1410536498146</v>
+        <v>508.3556941166981</v>
       </c>
       <c r="M36" t="n">
-        <v>798.9855719527718</v>
+        <v>657.9811631169003</v>
       </c>
       <c r="N36" t="n">
-        <v>1117.050198969227</v>
+        <v>1220.825681419858</v>
       </c>
       <c r="O36" t="n">
-        <v>1679.894717272185</v>
+        <v>1355.451354092939</v>
       </c>
       <c r="P36" t="n">
-        <v>2242.739235575142</v>
+        <v>1918.295872395896</v>
       </c>
       <c r="Q36" t="n">
         <v>2274.119265870534</v>
@@ -7061,7 +7061,7 @@
         <v>1132.186833320499</v>
       </c>
       <c r="Y36" t="n">
-        <v>952.8726163960064</v>
+        <v>952.8726163960059</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1504.446924660601</v>
+        <v>371.3206163489067</v>
       </c>
       <c r="C37" t="n">
-        <v>1504.446924660601</v>
+        <v>201.1154984148959</v>
       </c>
       <c r="D37" t="n">
-        <v>1348.813811563116</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="E37" t="n">
-        <v>1193.254999422319</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="F37" t="n">
-        <v>1035.929064635292</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="G37" t="n">
-        <v>868.4889141100927</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="H37" t="n">
-        <v>720.2467039906568</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="I37" t="n">
-        <v>611.6285728611539</v>
+        <v>45.48238531741069</v>
       </c>
       <c r="J37" t="n">
-        <v>638.2526938254639</v>
+        <v>72.10650628172074</v>
       </c>
       <c r="K37" t="n">
-        <v>812.7667495064658</v>
+        <v>246.6205619627225</v>
       </c>
       <c r="L37" t="n">
-        <v>1095.491619763295</v>
+        <v>529.3454322195516</v>
       </c>
       <c r="M37" t="n">
-        <v>1406.827348981746</v>
+        <v>840.6811614380024</v>
       </c>
       <c r="N37" t="n">
-        <v>1712.08786347263</v>
+        <v>1145.941675928887</v>
       </c>
       <c r="O37" t="n">
-        <v>1987.544846363387</v>
+        <v>1421.398658819644</v>
       </c>
       <c r="P37" t="n">
-        <v>2203.900011346021</v>
+        <v>1637.753823802277</v>
       </c>
       <c r="Q37" t="n">
-        <v>2274.119265870534</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="R37" t="n">
-        <v>2186.814331907734</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="S37" t="n">
-        <v>2186.814331907734</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="T37" t="n">
-        <v>2186.814331907734</v>
+        <v>1475.731613644271</v>
       </c>
       <c r="U37" t="n">
-        <v>2186.814331907734</v>
+        <v>1190.337216615737</v>
       </c>
       <c r="V37" t="n">
-        <v>2021.857648946441</v>
+        <v>1190.337216615737</v>
       </c>
       <c r="W37" t="n">
-        <v>1738.527246877618</v>
+        <v>907.0068145469147</v>
       </c>
       <c r="X37" t="n">
-        <v>1504.446924660601</v>
+        <v>779.6406962235646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1504.446924660601</v>
+        <v>556.528635040208</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1171.560816475397</v>
+        <v>832.073633084095</v>
       </c>
       <c r="C38" t="n">
-        <v>1171.560816475397</v>
+        <v>832.073633084095</v>
       </c>
       <c r="D38" t="n">
-        <v>1171.560816475397</v>
+        <v>832.073633084095</v>
       </c>
       <c r="E38" t="n">
-        <v>768.9772915919416</v>
+        <v>832.073633084095</v>
       </c>
       <c r="F38" t="n">
-        <v>352.0828531219194</v>
+        <v>415.1791946140728</v>
       </c>
       <c r="G38" t="n">
-        <v>45.48238531741069</v>
+        <v>415.1791946140728</v>
       </c>
       <c r="H38" t="n">
-        <v>45.48238531741069</v>
+        <v>109.6784617507582</v>
       </c>
       <c r="I38" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="J38" t="n">
-        <v>79.91459989372278</v>
+        <v>341.0674123654735</v>
       </c>
       <c r="K38" t="n">
-        <v>642.75911819668</v>
+        <v>903.9119306684306</v>
       </c>
       <c r="L38" t="n">
-        <v>1205.603636499637</v>
+        <v>1032.833248983818</v>
       </c>
       <c r="M38" t="n">
-        <v>1403.792272627607</v>
+        <v>1196.868190427005</v>
       </c>
       <c r="N38" t="n">
-        <v>1966.636790930565</v>
+        <v>1366.556364162236</v>
       </c>
       <c r="O38" t="n">
-        <v>2118.2006017878</v>
+        <v>1715.828891342545</v>
       </c>
       <c r="P38" t="n">
-        <v>2225.131157243437</v>
+        <v>1822.759446798181</v>
       </c>
       <c r="Q38" t="n">
-        <v>2274.119265870534</v>
+        <v>2199.646827000436</v>
       </c>
       <c r="R38" t="n">
         <v>2274.119265870534</v>
@@ -7207,19 +7207,19 @@
         <v>2274.119265870534</v>
       </c>
       <c r="U38" t="n">
-        <v>2274.119265870534</v>
+        <v>2018.511692941834</v>
       </c>
       <c r="V38" t="n">
-        <v>1932.012456574053</v>
+        <v>2018.511692941834</v>
       </c>
       <c r="W38" t="n">
-        <v>1561.01342154234</v>
+        <v>2018.511692941834</v>
       </c>
       <c r="X38" t="n">
-        <v>1171.560816475397</v>
+        <v>1629.059087874891</v>
       </c>
       <c r="Y38" t="n">
-        <v>1171.560816475397</v>
+        <v>1232.568378795492</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>801.076281955045</v>
+        <v>801.0762819550447</v>
       </c>
       <c r="C39" t="n">
-        <v>650.4220515151371</v>
+        <v>650.4220515151369</v>
       </c>
       <c r="D39" t="n">
-        <v>520.3330841366173</v>
+        <v>520.3330841366172</v>
       </c>
       <c r="E39" t="n">
-        <v>383.8865932475051</v>
+        <v>383.8865932475049</v>
       </c>
       <c r="F39" t="n">
         <v>259.4547871306368</v>
       </c>
       <c r="G39" t="n">
-        <v>140.3657897980797</v>
+        <v>140.3657897980796</v>
       </c>
       <c r="H39" t="n">
-        <v>61.44445651913566</v>
+        <v>61.44445651913552</v>
       </c>
       <c r="I39" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="J39" t="n">
-        <v>53.75837591273253</v>
+        <v>248.49337089246</v>
       </c>
       <c r="K39" t="n">
-        <v>118.7039980917263</v>
+        <v>721.8791051136802</v>
       </c>
       <c r="L39" t="n">
-        <v>681.5485163946835</v>
+        <v>872.613533730118</v>
       </c>
       <c r="M39" t="n">
-        <v>1244.393034697641</v>
+        <v>1022.23900273032</v>
       </c>
       <c r="N39" t="n">
-        <v>1548.776789647067</v>
+        <v>1185.190231865715</v>
       </c>
       <c r="O39" t="n">
-        <v>2111.621307950024</v>
+        <v>1319.815904538796</v>
       </c>
       <c r="P39" t="n">
-        <v>2207.103786020999</v>
+        <v>1882.660422841753</v>
       </c>
       <c r="Q39" t="n">
         <v>2238.483816316392</v>
@@ -7283,7 +7283,7 @@
         <v>2157.221155534766</v>
       </c>
       <c r="T39" t="n">
-        <v>1984.150432011467</v>
+        <v>1984.150432011466</v>
       </c>
       <c r="U39" t="n">
         <v>1774.151158466133</v>
@@ -7298,7 +7298,7 @@
         <v>1132.186833320499</v>
       </c>
       <c r="Y39" t="n">
-        <v>952.8726163960064</v>
+        <v>952.872616396006</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1024.04772625089</v>
+        <v>550.7430224489927</v>
       </c>
       <c r="C40" t="n">
-        <v>1024.04772625089</v>
+        <v>380.537904514982</v>
       </c>
       <c r="D40" t="n">
-        <v>1024.04772625089</v>
+        <v>380.537904514982</v>
       </c>
       <c r="E40" t="n">
-        <v>868.4889141100927</v>
+        <v>370.2484706296367</v>
       </c>
       <c r="F40" t="n">
-        <v>868.4889141100927</v>
+        <v>212.9225358426096</v>
       </c>
       <c r="G40" t="n">
-        <v>868.4889141100927</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="H40" t="n">
-        <v>720.2467039906568</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="I40" t="n">
-        <v>611.6285728611539</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="J40" t="n">
-        <v>638.2526938254639</v>
+        <v>72.10650628172073</v>
       </c>
       <c r="K40" t="n">
-        <v>812.7667495064658</v>
+        <v>246.6205619627225</v>
       </c>
       <c r="L40" t="n">
-        <v>1095.491619763295</v>
+        <v>529.3454322195516</v>
       </c>
       <c r="M40" t="n">
-        <v>1406.827348981746</v>
+        <v>840.6811614380024</v>
       </c>
       <c r="N40" t="n">
-        <v>1712.08786347263</v>
+        <v>1145.941675928887</v>
       </c>
       <c r="O40" t="n">
-        <v>1987.544846363387</v>
+        <v>1421.398658819644</v>
       </c>
       <c r="P40" t="n">
-        <v>2203.900011346021</v>
+        <v>1637.753823802277</v>
       </c>
       <c r="Q40" t="n">
-        <v>2274.119265870534</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="R40" t="n">
-        <v>2274.119265870534</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="S40" t="n">
-        <v>2085.487298149053</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="T40" t="n">
-        <v>1858.751870527423</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="U40" t="n">
-        <v>1573.357473498888</v>
+        <v>1519.341110605309</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.378128319713</v>
+        <v>1253.361765426133</v>
       </c>
       <c r="W40" t="n">
-        <v>1024.04772625089</v>
+        <v>970.031363357311</v>
       </c>
       <c r="X40" t="n">
-        <v>1024.04772625089</v>
+        <v>735.951041140294</v>
       </c>
       <c r="Y40" t="n">
-        <v>1024.04772625089</v>
+        <v>735.951041140294</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1884.666660803591</v>
+        <v>1106.134776048026</v>
       </c>
       <c r="C41" t="n">
-        <v>1491.491159306522</v>
+        <v>712.9592745509563</v>
       </c>
       <c r="D41" t="n">
-        <v>1106.050030523189</v>
+        <v>712.9592745509563</v>
       </c>
       <c r="E41" t="n">
-        <v>873.7251213406655</v>
+        <v>712.9592745509563</v>
       </c>
       <c r="F41" t="n">
-        <v>456.8306828706433</v>
+        <v>296.064836080934</v>
       </c>
       <c r="G41" t="n">
-        <v>45.48238531741069</v>
+        <v>296.064836080934</v>
       </c>
       <c r="H41" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="I41" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="J41" t="n">
-        <v>79.91459989372278</v>
+        <v>79.91459989372279</v>
       </c>
       <c r="K41" t="n">
         <v>164.4996007726544</v>
@@ -7420,19 +7420,19 @@
         <v>293.4209190880416</v>
       </c>
       <c r="M41" t="n">
-        <v>856.2654373909988</v>
+        <v>856.2654373909987</v>
       </c>
       <c r="N41" t="n">
         <v>1419.109955693956</v>
       </c>
       <c r="O41" t="n">
-        <v>1570.673766551192</v>
+        <v>1570.673766551191</v>
       </c>
       <c r="P41" t="n">
-        <v>1822.759446798182</v>
+        <v>1822.759446798181</v>
       </c>
       <c r="Q41" t="n">
-        <v>2199.646827000437</v>
+        <v>2199.646827000436</v>
       </c>
       <c r="R41" t="n">
         <v>2274.119265870534</v>
@@ -7450,13 +7450,13 @@
         <v>2274.119265870534</v>
       </c>
       <c r="W41" t="n">
-        <v>2274.119265870534</v>
+        <v>1903.120230838821</v>
       </c>
       <c r="X41" t="n">
-        <v>1884.666660803591</v>
+        <v>1903.120230838821</v>
       </c>
       <c r="Y41" t="n">
-        <v>1884.666660803591</v>
+        <v>1506.629521759423</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>140.3657897980795</v>
       </c>
       <c r="H42" t="n">
-        <v>61.44445651913553</v>
+        <v>61.44445651913552</v>
       </c>
       <c r="I42" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="J42" t="n">
-        <v>53.75837591273253</v>
+        <v>248.49337089246</v>
       </c>
       <c r="K42" t="n">
-        <v>118.7039980917263</v>
+        <v>326.9576325421538</v>
       </c>
       <c r="L42" t="n">
-        <v>236.1410536498146</v>
+        <v>444.3946881002421</v>
       </c>
       <c r="M42" t="n">
-        <v>594.0201571004444</v>
+        <v>594.0201571004443</v>
       </c>
       <c r="N42" t="n">
-        <v>756.9713862358393</v>
+        <v>756.9713862358392</v>
       </c>
       <c r="O42" t="n">
-        <v>1319.815904538797</v>
+        <v>1319.815904538796</v>
       </c>
       <c r="P42" t="n">
-        <v>1882.660422841754</v>
+        <v>1882.660422841753</v>
       </c>
       <c r="Q42" t="n">
         <v>2238.483816316392</v>
@@ -7520,7 +7520,7 @@
         <v>2157.221155534766</v>
       </c>
       <c r="T42" t="n">
-        <v>1984.150432011467</v>
+        <v>1984.150432011466</v>
       </c>
       <c r="U42" t="n">
         <v>1774.151158466133</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>832.4475733961672</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="C43" t="n">
-        <v>662.2424554621564</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="D43" t="n">
-        <v>506.6093423646711</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="E43" t="n">
-        <v>351.0505302238736</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="F43" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="G43" t="n">
-        <v>193.7245954368466</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="H43" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="I43" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="J43" t="n">
         <v>72.10650628172073</v>
@@ -7596,25 +7596,25 @@
         <v>1620.66814436399</v>
       </c>
       <c r="S43" t="n">
-        <v>1620.66814436399</v>
+        <v>1432.036176642509</v>
       </c>
       <c r="T43" t="n">
-        <v>1620.66814436399</v>
+        <v>1432.036176642509</v>
       </c>
       <c r="U43" t="n">
-        <v>1620.66814436399</v>
+        <v>1146.641779613974</v>
       </c>
       <c r="V43" t="n">
-        <v>1620.66814436399</v>
+        <v>880.6624344347985</v>
       </c>
       <c r="W43" t="n">
-        <v>1474.847975487842</v>
+        <v>597.3320323659761</v>
       </c>
       <c r="X43" t="n">
-        <v>1240.767653270825</v>
+        <v>453.8024651920686</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.655592087468</v>
+        <v>230.690404008712</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>847.8179525707652</v>
+        <v>1247.611080656255</v>
       </c>
       <c r="C44" t="n">
-        <v>847.8179525707652</v>
+        <v>1247.611080656255</v>
       </c>
       <c r="D44" t="n">
-        <v>462.376823787433</v>
+        <v>1247.611080656255</v>
       </c>
       <c r="E44" t="n">
-        <v>462.376823787433</v>
+        <v>1247.611080656255</v>
       </c>
       <c r="F44" t="n">
-        <v>45.48238531741069</v>
+        <v>830.7166421862329</v>
       </c>
       <c r="G44" t="n">
-        <v>45.48238531741069</v>
+        <v>419.3683446330003</v>
       </c>
       <c r="H44" t="n">
-        <v>45.48238531741069</v>
+        <v>113.8676117696857</v>
       </c>
       <c r="I44" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="J44" t="n">
-        <v>79.91459989372278</v>
+        <v>341.0674123654735</v>
       </c>
       <c r="K44" t="n">
-        <v>164.4996007726544</v>
+        <v>425.6524132444051</v>
       </c>
       <c r="L44" t="n">
-        <v>293.4209190880416</v>
+        <v>554.5737315597923</v>
       </c>
       <c r="M44" t="n">
-        <v>856.2654373909988</v>
+        <v>718.6086730029797</v>
       </c>
       <c r="N44" t="n">
-        <v>1419.109955693956</v>
+        <v>888.2968467382105</v>
       </c>
       <c r="O44" t="n">
-        <v>1570.673766551192</v>
+        <v>1334.387367365322</v>
       </c>
       <c r="P44" t="n">
-        <v>2133.518284854149</v>
+        <v>1897.231885668279</v>
       </c>
       <c r="Q44" t="n">
         <v>2274.119265870534</v>
@@ -7675,25 +7675,25 @@
         <v>2274.119265870534</v>
       </c>
       <c r="S44" t="n">
-        <v>2148.952671546926</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="T44" t="n">
-        <v>1933.394858820833</v>
+        <v>2274.119265870534</v>
       </c>
       <c r="U44" t="n">
-        <v>1677.787285892133</v>
+        <v>2018.511692941834</v>
       </c>
       <c r="V44" t="n">
-        <v>1335.680476595652</v>
+        <v>2018.511692941834</v>
       </c>
       <c r="W44" t="n">
-        <v>964.6814415639392</v>
+        <v>1647.512657910121</v>
       </c>
       <c r="X44" t="n">
-        <v>847.8179525707652</v>
+        <v>1644.101789735654</v>
       </c>
       <c r="Y44" t="n">
-        <v>847.8179525707652</v>
+        <v>1247.611080656255</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>801.076281955045</v>
+        <v>801.0762819550446</v>
       </c>
       <c r="C45" t="n">
-        <v>650.4220515151372</v>
+        <v>650.4220515151368</v>
       </c>
       <c r="D45" t="n">
-        <v>520.3330841366176</v>
+        <v>520.3330841366171</v>
       </c>
       <c r="E45" t="n">
         <v>383.8865932475048</v>
@@ -7721,34 +7721,34 @@
         <v>140.3657897980795</v>
       </c>
       <c r="H45" t="n">
-        <v>61.44445651913553</v>
+        <v>61.44445651913552</v>
       </c>
       <c r="I45" t="n">
-        <v>45.48238531741069</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="J45" t="n">
-        <v>248.4933708924599</v>
+        <v>248.49337089246</v>
       </c>
       <c r="K45" t="n">
-        <v>313.4389930714536</v>
+        <v>721.8791051136802</v>
       </c>
       <c r="L45" t="n">
-        <v>876.2835113744109</v>
+        <v>1284.723623416637</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.908980374613</v>
+        <v>1434.34909241684</v>
       </c>
       <c r="N45" t="n">
-        <v>1188.860209510008</v>
+        <v>1597.300321552234</v>
       </c>
       <c r="O45" t="n">
-        <v>1679.894717272185</v>
+        <v>1731.925994225316</v>
       </c>
       <c r="P45" t="n">
-        <v>2242.739235575142</v>
+        <v>1882.660422841753</v>
       </c>
       <c r="Q45" t="n">
-        <v>2274.119265870534</v>
+        <v>2238.483816316392</v>
       </c>
       <c r="R45" t="n">
         <v>2274.119265870534</v>
@@ -7757,7 +7757,7 @@
         <v>2157.221155534766</v>
       </c>
       <c r="T45" t="n">
-        <v>1984.150432011467</v>
+        <v>1984.150432011466</v>
       </c>
       <c r="U45" t="n">
         <v>1774.151158466133</v>
@@ -7772,7 +7772,7 @@
         <v>1132.186833320499</v>
       </c>
       <c r="Y45" t="n">
-        <v>952.8726163960064</v>
+        <v>952.8726163960059</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1439.415121594002</v>
+        <v>696.012400704445</v>
       </c>
       <c r="C46" t="n">
-        <v>1439.415121594002</v>
+        <v>525.8072827704342</v>
       </c>
       <c r="D46" t="n">
-        <v>1283.782008496517</v>
+        <v>525.8072827704342</v>
       </c>
       <c r="E46" t="n">
-        <v>1128.223196355719</v>
+        <v>370.2484706296367</v>
       </c>
       <c r="F46" t="n">
-        <v>970.8972615686921</v>
+        <v>212.9225358426096</v>
       </c>
       <c r="G46" t="n">
-        <v>803.4571110434931</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="H46" t="n">
-        <v>720.2467039906568</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="I46" t="n">
-        <v>611.6285728611539</v>
+        <v>45.48238531741068</v>
       </c>
       <c r="J46" t="n">
-        <v>638.2526938254639</v>
+        <v>72.10650628172073</v>
       </c>
       <c r="K46" t="n">
-        <v>812.7667495064658</v>
+        <v>246.6205619627225</v>
       </c>
       <c r="L46" t="n">
-        <v>1095.491619763295</v>
+        <v>529.3454322195516</v>
       </c>
       <c r="M46" t="n">
-        <v>1406.827348981746</v>
+        <v>840.6811614380024</v>
       </c>
       <c r="N46" t="n">
-        <v>1712.08786347263</v>
+        <v>1145.941675928887</v>
       </c>
       <c r="O46" t="n">
-        <v>1987.544846363387</v>
+        <v>1421.398658819644</v>
       </c>
       <c r="P46" t="n">
-        <v>2203.900011346021</v>
+        <v>1637.753823802277</v>
       </c>
       <c r="Q46" t="n">
-        <v>2274.119265870534</v>
+        <v>1707.973078326791</v>
       </c>
       <c r="R46" t="n">
-        <v>2274.119265870534</v>
+        <v>1625.167153895123</v>
       </c>
       <c r="S46" t="n">
-        <v>2274.119265870534</v>
+        <v>1436.535186173641</v>
       </c>
       <c r="T46" t="n">
-        <v>2274.119265870534</v>
+        <v>1436.535186173641</v>
       </c>
       <c r="U46" t="n">
-        <v>1988.724868842</v>
+        <v>1436.535186173641</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.745523662824</v>
+        <v>1436.535186173641</v>
       </c>
       <c r="W46" t="n">
-        <v>1439.415121594002</v>
+        <v>1153.204784104819</v>
       </c>
       <c r="X46" t="n">
-        <v>1439.415121594002</v>
+        <v>919.1244618878017</v>
       </c>
       <c r="Y46" t="n">
-        <v>1439.415121594002</v>
+        <v>696.012400704445</v>
       </c>
     </row>
   </sheetData>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>483.0904216404299</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>78.20202506828383</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>415.4350580259812</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>342.585823405531</v>
+        <v>460.5191543912334</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448103</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>417.3929790936918</v>
+        <v>13.65519138454542</v>
       </c>
       <c r="N12" t="n">
-        <v>104.3404848020904</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>432.5442885150262</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>472.0828689211939</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>35.01840131561796</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,16 +8935,16 @@
         <v>438.306262613707</v>
       </c>
       <c r="M14" t="n">
-        <v>402.83795642401</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>172.863362095875</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>415.4350580259812</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>160.2662604939036</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>33.63371015994888</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>246.352610105626</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>432.5442885150262</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>472.082868921194</v>
+        <v>472.0828689211939</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>35.01840131561796</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>137.6223513039261</v>
+        <v>438.3062626137068</v>
       </c>
       <c r="M17" t="n">
-        <v>402.83795642401</v>
+        <v>402.8379564240098</v>
       </c>
       <c r="N17" t="n">
-        <v>397.1276207754812</v>
+        <v>397.127620775481</v>
       </c>
       <c r="O17" t="n">
-        <v>415.4350580259812</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>114.7511467161999</v>
       </c>
       <c r="R17" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448103</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>33.63371015994902</v>
+        <v>161.5074092339277</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>432.5442885150261</v>
       </c>
       <c r="P18" t="n">
-        <v>472.082868921194</v>
+        <v>472.0828689211938</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>35.01840131561796</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>438.3062626137071</v>
+        <v>438.3062626137068</v>
       </c>
       <c r="M20" t="n">
-        <v>319.7146188178058</v>
+        <v>402.8379564240098</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>397.127620775481</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>114.7511467161999</v>
       </c>
       <c r="R20" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448103</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,13 +9485,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>449.9065280251202</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>101.7839637603725</v>
       </c>
       <c r="N21" t="n">
-        <v>91.8054546460661</v>
+        <v>403.9326153207698</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
-        <v>35.01840131561796</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>483.09042164043</v>
       </c>
       <c r="L23" t="n">
-        <v>438.3062626137071</v>
+        <v>274.9304597910826</v>
       </c>
       <c r="M23" t="n">
-        <v>402.8379564240101</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>28.78834585125202</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448103</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>449.9065280251201</v>
       </c>
       <c r="M24" t="n">
-        <v>134.1451600627386</v>
+        <v>55.81005105602313</v>
       </c>
       <c r="N24" t="n">
-        <v>403.9326153207701</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>432.5442885150263</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>472.0828689211941</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>70.6327029553611</v>
       </c>
       <c r="K26" t="n">
-        <v>483.09042164043</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>51.65955043897767</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>402.83795642401</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>415.4350580259813</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>460.5191543912335</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>27.29292927448104</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,25 +9956,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>69.62911374999182</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>377.3711638425135</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>432.5442885150263</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>472.0828689211941</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>35.01840131561796</v>
@@ -10117,7 +10117,7 @@
         <v>483.09042164043</v>
       </c>
       <c r="L29" t="n">
-        <v>145.6226908293006</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>460.5191543912335</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>70.39800510192903</v>
       </c>
       <c r="R29" t="n">
-        <v>27.29292927448104</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>449.9065280251202</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>403.9326153207701</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>261.1452206059134</v>
+        <v>33.63371015994863</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>472.0828689211941</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10351,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>483.09042164043</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>438.3062626137071</v>
+        <v>137.6223513039263</v>
       </c>
       <c r="M32" t="n">
-        <v>402.8379564240101</v>
+        <v>402.83795642401</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>397.1276207754813</v>
       </c>
       <c r="O32" t="n">
-        <v>28.78834585125202</v>
+        <v>415.4350580259813</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448103</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>33.63371015994865</v>
       </c>
       <c r="M33" t="n">
-        <v>117.800848575012</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>403.9326153207701</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>432.5442885150263</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>472.0828689211941</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>35.01840131561796</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>483.09042164043</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.8573886827328</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>415.4350580259813</v>
+        <v>199.705774063711</v>
       </c>
       <c r="P35" t="n">
-        <v>460.5191543912335</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>27.29292927448104</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,22 +10670,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>274.9642832998824</v>
       </c>
       <c r="M36" t="n">
-        <v>417.392979093692</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>156.6801998798594</v>
+        <v>403.93261532077</v>
       </c>
       <c r="O36" t="n">
-        <v>432.5442885150263</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>472.0828689211941</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>35.01840131561796</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>483.09042164043</v>
+        <v>483.0904216404299</v>
       </c>
       <c r="L38" t="n">
-        <v>438.3062626137071</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>34.49868149978082</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>397.1276207754813</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>199.7057740637105</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>27.29292927448104</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>449.9065280251202</v>
+        <v>33.63371015994888</v>
       </c>
       <c r="M39" t="n">
-        <v>417.392979093692</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>142.8611371858905</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>432.5442885150263</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>472.0828689211939</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11068,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>402.8379564240101</v>
+        <v>402.8379564240099</v>
       </c>
       <c r="N41" t="n">
-        <v>397.1276207754813</v>
+        <v>397.1276207754811</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>146.6213381730848</v>
+        <v>146.6213381730847</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
@@ -11138,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>13.65519138454553</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>210.3572065155834</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>432.5442885150263</v>
+        <v>432.5442885150262</v>
       </c>
       <c r="P42" t="n">
-        <v>472.0828689211941</v>
+        <v>472.0828689211939</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>402.8379564240101</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>397.1276207754813</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>297.5017270402786</v>
       </c>
       <c r="P44" t="n">
-        <v>460.5191543912335</v>
+        <v>460.5191543912334</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.53825493867438</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
-        <v>27.29292927448104</v>
+        <v>27.29292927448103</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>449.9065280251202</v>
+        <v>449.90652802512</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>360.0089243324196</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>472.0828689211941</v>
+        <v>55.81005105602287</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>35.01840131561796</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>359.6906806656993</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.9149283803722</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.20746924470981</v>
       </c>
       <c r="U11" t="n">
         <v>253.0514971994132</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23430,13 +23430,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>21.47700999579726</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H13" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>107.5319498182078</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>86.43188462317241</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>110.0672127106868</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23509,13 +23509,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.2348145777002</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>24.82168044441812</v>
+        <v>302.4457255346815</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.70137418775225</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>141.6681541511539</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>3.213362869505801</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
@@ -23670,7 +23670,7 @@
         <v>165.7657490199469</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I16" t="n">
         <v>107.5319498182078</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>86.43188462317241</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.9190500356943</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.4276939839769796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>397.7181499040135</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.70137418775225</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.4022345988317</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.0514971994132</v>
       </c>
       <c r="V17" t="n">
-        <v>212.2043005377695</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H19" t="n">
-        <v>146.7597880182415</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>86.43188462317241</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.9190500356943</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>8.665036586386577</v>
       </c>
       <c r="Y19" t="n">
-        <v>146.1865061347553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>407.2348145777002</v>
       </c>
       <c r="H20" t="n">
-        <v>302.4457255346815</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>67.70137418775225</v>
@@ -24022,10 +24022,10 @@
         <v>123.9149283803722</v>
       </c>
       <c r="T20" t="n">
-        <v>213.4022345988317</v>
+        <v>100.4403080051171</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0514971994132</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>143.5133404064013</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>103.0918020600114</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H22" t="n">
         <v>146.7597880182415</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>86.43188462317241</v>
       </c>
       <c r="S22" t="n">
-        <v>186.745648044267</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>50.10019486729809</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>67.46033578240144</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>292.795844519275</v>
       </c>
       <c r="I23" t="n">
         <v>67.70137418775225</v>
@@ -24262,7 +24262,7 @@
         <v>213.4022345988317</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0514971994132</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>119.5101413026823</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H25" t="n">
         <v>146.7597880182415</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>86.43188462317242</v>
+        <v>86.43188462317241</v>
       </c>
       <c r="S25" t="n">
-        <v>186.745648044267</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>229.9190500356943</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>62.80916521865126</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>167.8167955978869</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>302.4457255346815</v>
       </c>
       <c r="I26" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.9149283803722</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4022345988317</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.0514971994132</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>83.50065935451943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>12.07957508828676</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>10.69829408850342</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.7657490199469</v>
@@ -24621,7 +24621,7 @@
         <v>146.7597880182415</v>
       </c>
       <c r="I28" t="n">
-        <v>107.5319498182078</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>86.43188462317242</v>
+        <v>86.43188462317241</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>186.745648044267</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>264.5666135750984</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -24688,13 +24688,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>407.2348145777002</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>302.4457255346815</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.4022345988317</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.0514971994132</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>218.3473069729005</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>75.48853899477996</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>86.43188462317242</v>
+        <v>86.43188462317241</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.745648044267</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>12.48267197828989</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>407.2348145777002</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>67.70137418775225</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.9149283803722</v>
       </c>
       <c r="T32" t="n">
         <v>213.4022345988317</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>50.05107249653025</v>
+        <v>275.3945048730436</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.9916524375425</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>107.5319498182078</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>86.43188462317241</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>229.9190500356943</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>252.8007879376725</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>407.2348145777002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>302.4457255346815</v>
       </c>
       <c r="I35" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.9149283803722</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.4022345988317</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>89.04180932571839</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>221.080546134079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.7657490199469</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>107.5319498182078</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>86.43188462317241</v>
       </c>
       <c r="S37" t="n">
         <v>186.745648044267</v>
       </c>
       <c r="T37" t="n">
-        <v>229.9190500356943</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>100.0124355957036</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>105.6470618547302</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -25399,19 +25399,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>103.7003514512367</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H38" t="n">
-        <v>302.4457255346815</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.70137418775225</v>
+        <v>4.147258518738241</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>213.4022345988317</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0514971994132</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>143.8166844728977</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.7657490199469</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>107.5319498182078</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>86.43188462317242</v>
+        <v>86.43188462317241</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>5.450976690280669</v>
+        <v>229.9190500356943</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5560295439222</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.2348145777002</v>
       </c>
       <c r="H41" t="n">
-        <v>302.4457255346815</v>
+        <v>54.36909927879339</v>
       </c>
       <c r="I41" t="n">
         <v>67.70137418775225</v>
@@ -25690,13 +25690,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>165.7657490199469</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I43" t="n">
         <v>107.5319498182078</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>186.745648044267</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>229.9190500356943</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5404530582489</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>136.1351308607472</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>89.64524749267827</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.2348145777002</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>302.4457255346815</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.70137418775225</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.9149283803722</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.4022345988317</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>269.8632249130315</v>
+        <v>382.181319523551</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>64.38148503593354</v>
+        <v>146.7597880182415</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>107.5319498182078</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>86.43188462317242</v>
+        <v>4.454019435821081</v>
       </c>
       <c r="S46" t="n">
-        <v>186.745648044267</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>229.9190500356943</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5404530582489</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>530024.8420702703</v>
+        <v>530024.8420702702</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>530024.8420702704</v>
+        <v>530024.8420702702</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>530024.8420702702</v>
+        <v>530024.8420702701</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>530024.8420702704</v>
+        <v>530024.8420702703</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>530024.8420702704</v>
+        <v>530024.8420702703</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>530024.8420702704</v>
+        <v>530024.8420702703</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>530024.8420702704</v>
+        <v>530024.8420702703</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>530024.8420702704</v>
+        <v>530024.8420702703</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>575677.5082070947</v>
+        <v>575677.5082070945</v>
       </c>
       <c r="C2" t="n">
-        <v>575677.5082070943</v>
+        <v>575677.5082070945</v>
       </c>
       <c r="D2" t="n">
         <v>575677.5082070945</v>
       </c>
       <c r="E2" t="n">
+        <v>383621.1059330292</v>
+      </c>
+      <c r="F2" t="n">
         <v>383621.1059330291</v>
-      </c>
-      <c r="F2" t="n">
-        <v>383621.105933029</v>
       </c>
       <c r="G2" t="n">
         <v>383621.1059330291</v>
       </c>
       <c r="H2" t="n">
+        <v>383621.105933029</v>
+      </c>
+      <c r="I2" t="n">
+        <v>383621.1059330291</v>
+      </c>
+      <c r="J2" t="n">
         <v>383621.1059330292</v>
       </c>
-      <c r="I2" t="n">
-        <v>383621.105933029</v>
-      </c>
-      <c r="J2" t="n">
-        <v>383621.105933029</v>
-      </c>
       <c r="K2" t="n">
-        <v>383621.1059330292</v>
+        <v>383621.1059330293</v>
       </c>
       <c r="L2" t="n">
         <v>383621.1059330292</v>
       </c>
       <c r="M2" t="n">
-        <v>383621.105933029</v>
+        <v>383621.1059330291</v>
       </c>
       <c r="N2" t="n">
-        <v>383621.105933029</v>
+        <v>383621.1059330291</v>
       </c>
       <c r="O2" t="n">
-        <v>383621.1059330292</v>
+        <v>383621.1059330293</v>
       </c>
       <c r="P2" t="n">
-        <v>383621.1059330292</v>
+        <v>383621.1059330293</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>377542.8357541459</v>
       </c>
       <c r="E4" t="n">
-        <v>74947.19313246448</v>
+        <v>74947.19313246447</v>
       </c>
       <c r="F4" t="n">
-        <v>74947.19313246448</v>
+        <v>74947.19313246447</v>
       </c>
       <c r="G4" t="n">
-        <v>74947.19313246447</v>
+        <v>74947.19313246445</v>
       </c>
       <c r="H4" t="n">
-        <v>74947.19313246451</v>
+        <v>74947.19313246444</v>
       </c>
       <c r="I4" t="n">
         <v>74947.19313246451</v>
       </c>
       <c r="J4" t="n">
-        <v>74947.19313246453</v>
+        <v>74947.19313246448</v>
       </c>
       <c r="K4" t="n">
-        <v>74947.19313246451</v>
+        <v>74947.19313246448</v>
       </c>
       <c r="L4" t="n">
-        <v>74947.1931324645</v>
+        <v>74947.19313246448</v>
       </c>
       <c r="M4" t="n">
         <v>74947.19313246451</v>
       </c>
       <c r="N4" t="n">
-        <v>74947.1931324645</v>
+        <v>74947.19313246448</v>
       </c>
       <c r="O4" t="n">
-        <v>74947.1931324645</v>
+        <v>74947.19313246448</v>
       </c>
       <c r="P4" t="n">
-        <v>74947.19313246451</v>
+        <v>74947.19313246448</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>44307.57121816226</v>
       </c>
       <c r="H5" t="n">
-        <v>44307.57121816227</v>
+        <v>44307.57121816226</v>
       </c>
       <c r="I5" t="n">
         <v>44307.57121816227</v>
@@ -26505,13 +26505,13 @@
         <v>44307.57121816227</v>
       </c>
       <c r="N5" t="n">
-        <v>44307.57121816227</v>
+        <v>44307.57121816226</v>
       </c>
       <c r="O5" t="n">
-        <v>44307.57121816227</v>
+        <v>44307.57121816226</v>
       </c>
       <c r="P5" t="n">
-        <v>44307.57121816227</v>
+        <v>44307.57121816226</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164507.0724529489</v>
+        <v>164502.7428851622</v>
       </c>
       <c r="C6" t="n">
-        <v>164507.0724529484</v>
+        <v>164502.7428851622</v>
       </c>
       <c r="D6" t="n">
-        <v>164507.0724529487</v>
+        <v>164502.7428851622</v>
       </c>
       <c r="E6" t="n">
-        <v>-264371.0889543206</v>
+        <v>-264975.5947792134</v>
       </c>
       <c r="F6" t="n">
-        <v>264366.3415824022</v>
+        <v>263761.8357575095</v>
       </c>
       <c r="G6" t="n">
-        <v>264366.3415824024</v>
+        <v>263761.8357575096</v>
       </c>
       <c r="H6" t="n">
-        <v>264366.3415824024</v>
+        <v>263761.8357575095</v>
       </c>
       <c r="I6" t="n">
-        <v>264366.3415824023</v>
+        <v>263761.8357575096</v>
       </c>
       <c r="J6" t="n">
-        <v>264366.3415824022</v>
+        <v>263761.8357575096</v>
       </c>
       <c r="K6" t="n">
-        <v>264366.3415824024</v>
+        <v>263761.8357575097</v>
       </c>
       <c r="L6" t="n">
-        <v>264366.3415824025</v>
+        <v>263761.8357575096</v>
       </c>
       <c r="M6" t="n">
-        <v>122686.4371994021</v>
+        <v>122081.9313745094</v>
       </c>
       <c r="N6" t="n">
-        <v>264366.3415824022</v>
+        <v>263761.8357575096</v>
       </c>
       <c r="O6" t="n">
-        <v>264366.3415824025</v>
+        <v>263761.8357575097</v>
       </c>
       <c r="P6" t="n">
-        <v>264366.3415824024</v>
+        <v>263761.8357575097</v>
       </c>
     </row>
   </sheetData>
@@ -26804,10 +26804,10 @@
         <v>568.5298164676335</v>
       </c>
       <c r="G4" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676334</v>
       </c>
       <c r="H4" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676334</v>
       </c>
       <c r="I4" t="n">
         <v>568.5298164676336</v>
@@ -26825,13 +26825,13 @@
         <v>568.5298164676336</v>
       </c>
       <c r="N4" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="O4" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="P4" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676335</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31770,10 +31770,10 @@
         <v>283.4717235844182</v>
       </c>
       <c r="M11" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413509</v>
       </c>
       <c r="N11" t="n">
-        <v>320.5206870299364</v>
+        <v>320.5206870299365</v>
       </c>
       <c r="O11" t="n">
         <v>302.6585958657487</v>
@@ -31782,16 +31782,16 @@
         <v>258.3121093173253</v>
       </c>
       <c r="Q11" t="n">
-        <v>193.9816364255617</v>
+        <v>193.9816364255618</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8376703047048</v>
+        <v>112.8376703047049</v>
       </c>
       <c r="S11" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798778</v>
       </c>
       <c r="T11" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345756</v>
       </c>
       <c r="U11" t="n">
         <v>0.1437050703341314</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226731</v>
       </c>
       <c r="H12" t="n">
-        <v>9.282322289250553</v>
+        <v>9.282322289250555</v>
       </c>
       <c r="I12" t="n">
         <v>33.09093095849993</v>
       </c>
       <c r="J12" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325441</v>
       </c>
       <c r="K12" t="n">
         <v>155.1985738979735</v>
@@ -31855,10 +31855,10 @@
         <v>249.9693140010302</v>
       </c>
       <c r="O12" t="n">
-        <v>228.6730868414962</v>
+        <v>228.6730868414963</v>
       </c>
       <c r="P12" t="n">
-        <v>183.5303123657541</v>
+        <v>183.5303123657542</v>
       </c>
       <c r="Q12" t="n">
         <v>122.6851534542907</v>
@@ -31873,7 +31873,7 @@
         <v>3.873957395014194</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06323107826464956</v>
+        <v>0.06323107826464958</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019821</v>
       </c>
       <c r="H13" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879446</v>
       </c>
       <c r="I13" t="n">
         <v>24.23153129108507</v>
       </c>
       <c r="J13" t="n">
-        <v>56.96753895126012</v>
+        <v>56.96753895126013</v>
       </c>
       <c r="K13" t="n">
         <v>93.61516623339389</v>
       </c>
       <c r="L13" t="n">
-        <v>119.7951822050801</v>
+        <v>119.7951822050802</v>
       </c>
       <c r="M13" t="n">
         <v>126.3072231112998</v>
@@ -31937,13 +31937,13 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P13" t="n">
-        <v>97.45353455157058</v>
+        <v>97.4535345515706</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.47177591359869</v>
+        <v>67.47177591359871</v>
       </c>
       <c r="R13" t="n">
-        <v>36.23009485057638</v>
+        <v>36.23009485057639</v>
       </c>
       <c r="S13" t="n">
         <v>14.04227493500908</v>
@@ -32007,10 +32007,10 @@
         <v>283.4717235844182</v>
       </c>
       <c r="M14" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413509</v>
       </c>
       <c r="N14" t="n">
-        <v>320.5206870299364</v>
+        <v>320.5206870299365</v>
       </c>
       <c r="O14" t="n">
         <v>302.6585958657487</v>
@@ -32019,16 +32019,16 @@
         <v>258.3121093173253</v>
       </c>
       <c r="Q14" t="n">
-        <v>193.9816364255617</v>
+        <v>193.9816364255618</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8376703047048</v>
+        <v>112.8376703047049</v>
       </c>
       <c r="S14" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798778</v>
       </c>
       <c r="T14" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345756</v>
       </c>
       <c r="U14" t="n">
         <v>0.1437050703341314</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226731</v>
       </c>
       <c r="H15" t="n">
-        <v>9.282322289250553</v>
+        <v>9.282322289250555</v>
       </c>
       <c r="I15" t="n">
         <v>33.09093095849993</v>
       </c>
       <c r="J15" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325441</v>
       </c>
       <c r="K15" t="n">
         <v>155.1985738979735</v>
@@ -32092,10 +32092,10 @@
         <v>249.9693140010302</v>
       </c>
       <c r="O15" t="n">
-        <v>228.6730868414962</v>
+        <v>228.6730868414963</v>
       </c>
       <c r="P15" t="n">
-        <v>183.5303123657541</v>
+        <v>183.5303123657542</v>
       </c>
       <c r="Q15" t="n">
         <v>122.6851534542907</v>
@@ -32110,7 +32110,7 @@
         <v>3.873957395014194</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06323107826464956</v>
+        <v>0.06323107826464958</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019821</v>
       </c>
       <c r="H16" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879446</v>
       </c>
       <c r="I16" t="n">
         <v>24.23153129108507</v>
       </c>
       <c r="J16" t="n">
-        <v>56.96753895126012</v>
+        <v>56.96753895126013</v>
       </c>
       <c r="K16" t="n">
         <v>93.61516623339389</v>
       </c>
       <c r="L16" t="n">
-        <v>119.7951822050801</v>
+        <v>119.7951822050802</v>
       </c>
       <c r="M16" t="n">
         <v>126.3072231112998</v>
@@ -32174,13 +32174,13 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P16" t="n">
-        <v>97.45353455157058</v>
+        <v>97.4535345515706</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.47177591359869</v>
+        <v>67.47177591359871</v>
       </c>
       <c r="R16" t="n">
-        <v>36.23009485057638</v>
+        <v>36.23009485057639</v>
       </c>
       <c r="S16" t="n">
         <v>14.04227493500908</v>
@@ -32244,10 +32244,10 @@
         <v>283.4717235844182</v>
       </c>
       <c r="M17" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413509</v>
       </c>
       <c r="N17" t="n">
-        <v>320.5206870299364</v>
+        <v>320.5206870299365</v>
       </c>
       <c r="O17" t="n">
         <v>302.6585958657487</v>
@@ -32256,16 +32256,16 @@
         <v>258.3121093173253</v>
       </c>
       <c r="Q17" t="n">
-        <v>193.9816364255617</v>
+        <v>193.9816364255618</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8376703047048</v>
+        <v>112.8376703047049</v>
       </c>
       <c r="S17" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798778</v>
       </c>
       <c r="T17" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345756</v>
       </c>
       <c r="U17" t="n">
         <v>0.1437050703341314</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226731</v>
       </c>
       <c r="H18" t="n">
-        <v>9.282322289250553</v>
+        <v>9.282322289250555</v>
       </c>
       <c r="I18" t="n">
         <v>33.09093095849993</v>
       </c>
       <c r="J18" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325441</v>
       </c>
       <c r="K18" t="n">
         <v>155.1985738979735</v>
@@ -32329,10 +32329,10 @@
         <v>249.9693140010302</v>
       </c>
       <c r="O18" t="n">
-        <v>228.6730868414962</v>
+        <v>228.6730868414963</v>
       </c>
       <c r="P18" t="n">
-        <v>183.5303123657541</v>
+        <v>183.5303123657542</v>
       </c>
       <c r="Q18" t="n">
         <v>122.6851534542907</v>
@@ -32347,7 +32347,7 @@
         <v>3.873957395014194</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06323107826464956</v>
+        <v>0.06323107826464958</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019821</v>
       </c>
       <c r="H19" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879446</v>
       </c>
       <c r="I19" t="n">
         <v>24.23153129108507</v>
       </c>
       <c r="J19" t="n">
-        <v>56.96753895126012</v>
+        <v>56.96753895126013</v>
       </c>
       <c r="K19" t="n">
         <v>93.61516623339389</v>
       </c>
       <c r="L19" t="n">
-        <v>119.7951822050801</v>
+        <v>119.7951822050802</v>
       </c>
       <c r="M19" t="n">
         <v>126.3072231112998</v>
@@ -32411,13 +32411,13 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P19" t="n">
-        <v>97.45353455157058</v>
+        <v>97.4535345515706</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.47177591359869</v>
+        <v>67.47177591359871</v>
       </c>
       <c r="R19" t="n">
-        <v>36.23009485057638</v>
+        <v>36.23009485057639</v>
       </c>
       <c r="S19" t="n">
         <v>14.04227493500908</v>
@@ -32481,10 +32481,10 @@
         <v>283.4717235844182</v>
       </c>
       <c r="M20" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413509</v>
       </c>
       <c r="N20" t="n">
-        <v>320.5206870299364</v>
+        <v>320.5206870299365</v>
       </c>
       <c r="O20" t="n">
         <v>302.6585958657487</v>
@@ -32493,16 +32493,16 @@
         <v>258.3121093173253</v>
       </c>
       <c r="Q20" t="n">
-        <v>193.9816364255617</v>
+        <v>193.9816364255618</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8376703047048</v>
+        <v>112.8376703047049</v>
       </c>
       <c r="S20" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798778</v>
       </c>
       <c r="T20" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345756</v>
       </c>
       <c r="U20" t="n">
         <v>0.1437050703341314</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226731</v>
       </c>
       <c r="H21" t="n">
-        <v>9.282322289250553</v>
+        <v>9.282322289250555</v>
       </c>
       <c r="I21" t="n">
         <v>33.09093095849993</v>
       </c>
       <c r="J21" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325441</v>
       </c>
       <c r="K21" t="n">
         <v>155.1985738979735</v>
@@ -32566,10 +32566,10 @@
         <v>249.9693140010302</v>
       </c>
       <c r="O21" t="n">
-        <v>228.6730868414962</v>
+        <v>228.6730868414963</v>
       </c>
       <c r="P21" t="n">
-        <v>183.5303123657541</v>
+        <v>183.5303123657542</v>
       </c>
       <c r="Q21" t="n">
         <v>122.6851534542907</v>
@@ -32584,7 +32584,7 @@
         <v>3.873957395014194</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06323107826464956</v>
+        <v>0.06323107826464958</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019821</v>
       </c>
       <c r="H22" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879446</v>
       </c>
       <c r="I22" t="n">
         <v>24.23153129108507</v>
       </c>
       <c r="J22" t="n">
-        <v>56.96753895126012</v>
+        <v>56.96753895126013</v>
       </c>
       <c r="K22" t="n">
         <v>93.61516623339389</v>
       </c>
       <c r="L22" t="n">
-        <v>119.7951822050801</v>
+        <v>119.7951822050802</v>
       </c>
       <c r="M22" t="n">
         <v>126.3072231112998</v>
@@ -32648,13 +32648,13 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P22" t="n">
-        <v>97.45353455157058</v>
+        <v>97.4535345515706</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.47177591359869</v>
+        <v>67.47177591359871</v>
       </c>
       <c r="R22" t="n">
-        <v>36.23009485057638</v>
+        <v>36.23009485057639</v>
       </c>
       <c r="S22" t="n">
         <v>14.04227493500908</v>
@@ -32718,10 +32718,10 @@
         <v>283.4717235844182</v>
       </c>
       <c r="M23" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413509</v>
       </c>
       <c r="N23" t="n">
-        <v>320.5206870299364</v>
+        <v>320.5206870299365</v>
       </c>
       <c r="O23" t="n">
         <v>302.6585958657487</v>
@@ -32730,16 +32730,16 @@
         <v>258.3121093173253</v>
       </c>
       <c r="Q23" t="n">
-        <v>193.9816364255617</v>
+        <v>193.9816364255618</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8376703047048</v>
+        <v>112.8376703047049</v>
       </c>
       <c r="S23" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798778</v>
       </c>
       <c r="T23" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345756</v>
       </c>
       <c r="U23" t="n">
         <v>0.1437050703341314</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226731</v>
       </c>
       <c r="H24" t="n">
-        <v>9.282322289250553</v>
+        <v>9.282322289250555</v>
       </c>
       <c r="I24" t="n">
         <v>33.09093095849993</v>
       </c>
       <c r="J24" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325441</v>
       </c>
       <c r="K24" t="n">
         <v>155.1985738979735</v>
@@ -32803,10 +32803,10 @@
         <v>249.9693140010302</v>
       </c>
       <c r="O24" t="n">
-        <v>228.6730868414962</v>
+        <v>228.6730868414963</v>
       </c>
       <c r="P24" t="n">
-        <v>183.5303123657541</v>
+        <v>183.5303123657542</v>
       </c>
       <c r="Q24" t="n">
         <v>122.6851534542907</v>
@@ -32821,7 +32821,7 @@
         <v>3.873957395014194</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06323107826464956</v>
+        <v>0.06323107826464958</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019821</v>
       </c>
       <c r="H25" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879446</v>
       </c>
       <c r="I25" t="n">
         <v>24.23153129108507</v>
       </c>
       <c r="J25" t="n">
-        <v>56.96753895126012</v>
+        <v>56.96753895126013</v>
       </c>
       <c r="K25" t="n">
         <v>93.61516623339389</v>
       </c>
       <c r="L25" t="n">
-        <v>119.7951822050801</v>
+        <v>119.7951822050802</v>
       </c>
       <c r="M25" t="n">
         <v>126.3072231112998</v>
@@ -32885,13 +32885,13 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P25" t="n">
-        <v>97.45353455157058</v>
+        <v>97.4535345515706</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.47177591359869</v>
+        <v>67.47177591359871</v>
       </c>
       <c r="R25" t="n">
-        <v>36.23009485057638</v>
+        <v>36.23009485057639</v>
       </c>
       <c r="S25" t="n">
         <v>14.04227493500908</v>
@@ -32955,10 +32955,10 @@
         <v>283.4717235844182</v>
       </c>
       <c r="M26" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413509</v>
       </c>
       <c r="N26" t="n">
-        <v>320.5206870299364</v>
+        <v>320.5206870299365</v>
       </c>
       <c r="O26" t="n">
         <v>302.6585958657487</v>
@@ -32967,16 +32967,16 @@
         <v>258.3121093173253</v>
       </c>
       <c r="Q26" t="n">
-        <v>193.9816364255617</v>
+        <v>193.9816364255618</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8376703047048</v>
+        <v>112.8376703047049</v>
       </c>
       <c r="S26" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798778</v>
       </c>
       <c r="T26" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345756</v>
       </c>
       <c r="U26" t="n">
         <v>0.1437050703341314</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226731</v>
       </c>
       <c r="H27" t="n">
-        <v>9.282322289250553</v>
+        <v>9.282322289250555</v>
       </c>
       <c r="I27" t="n">
         <v>33.09093095849993</v>
       </c>
       <c r="J27" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325441</v>
       </c>
       <c r="K27" t="n">
         <v>155.1985738979735</v>
@@ -33040,10 +33040,10 @@
         <v>249.9693140010302</v>
       </c>
       <c r="O27" t="n">
-        <v>228.6730868414962</v>
+        <v>228.6730868414963</v>
       </c>
       <c r="P27" t="n">
-        <v>183.5303123657541</v>
+        <v>183.5303123657542</v>
       </c>
       <c r="Q27" t="n">
         <v>122.6851534542907</v>
@@ -33058,7 +33058,7 @@
         <v>3.873957395014194</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06323107826464956</v>
+        <v>0.06323107826464958</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019821</v>
       </c>
       <c r="H28" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879446</v>
       </c>
       <c r="I28" t="n">
         <v>24.23153129108507</v>
       </c>
       <c r="J28" t="n">
-        <v>56.96753895126012</v>
+        <v>56.96753895126013</v>
       </c>
       <c r="K28" t="n">
         <v>93.61516623339389</v>
       </c>
       <c r="L28" t="n">
-        <v>119.7951822050801</v>
+        <v>119.7951822050802</v>
       </c>
       <c r="M28" t="n">
         <v>126.3072231112998</v>
@@ -33122,13 +33122,13 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P28" t="n">
-        <v>97.45353455157058</v>
+        <v>97.4535345515706</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.47177591359869</v>
+        <v>67.47177591359871</v>
       </c>
       <c r="R28" t="n">
-        <v>36.23009485057638</v>
+        <v>36.23009485057639</v>
       </c>
       <c r="S28" t="n">
         <v>14.04227493500908</v>
@@ -33192,10 +33192,10 @@
         <v>283.4717235844182</v>
       </c>
       <c r="M29" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413509</v>
       </c>
       <c r="N29" t="n">
-        <v>320.5206870299364</v>
+        <v>320.5206870299365</v>
       </c>
       <c r="O29" t="n">
         <v>302.6585958657487</v>
@@ -33204,16 +33204,16 @@
         <v>258.3121093173253</v>
       </c>
       <c r="Q29" t="n">
-        <v>193.9816364255617</v>
+        <v>193.9816364255618</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8376703047048</v>
+        <v>112.8376703047049</v>
       </c>
       <c r="S29" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798778</v>
       </c>
       <c r="T29" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345756</v>
       </c>
       <c r="U29" t="n">
         <v>0.1437050703341314</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226731</v>
       </c>
       <c r="H30" t="n">
-        <v>9.282322289250553</v>
+        <v>9.282322289250555</v>
       </c>
       <c r="I30" t="n">
         <v>33.09093095849993</v>
       </c>
       <c r="J30" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325441</v>
       </c>
       <c r="K30" t="n">
         <v>155.1985738979735</v>
@@ -33277,10 +33277,10 @@
         <v>249.9693140010302</v>
       </c>
       <c r="O30" t="n">
-        <v>228.6730868414962</v>
+        <v>228.6730868414963</v>
       </c>
       <c r="P30" t="n">
-        <v>183.5303123657541</v>
+        <v>183.5303123657542</v>
       </c>
       <c r="Q30" t="n">
         <v>122.6851534542907</v>
@@ -33295,7 +33295,7 @@
         <v>3.873957395014194</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06323107826464956</v>
+        <v>0.06323107826464958</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019821</v>
       </c>
       <c r="H31" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879446</v>
       </c>
       <c r="I31" t="n">
         <v>24.23153129108507</v>
       </c>
       <c r="J31" t="n">
-        <v>56.96753895126012</v>
+        <v>56.96753895126013</v>
       </c>
       <c r="K31" t="n">
         <v>93.61516623339389</v>
       </c>
       <c r="L31" t="n">
-        <v>119.7951822050801</v>
+        <v>119.7951822050802</v>
       </c>
       <c r="M31" t="n">
         <v>126.3072231112998</v>
@@ -33359,13 +33359,13 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P31" t="n">
-        <v>97.45353455157058</v>
+        <v>97.4535345515706</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.47177591359869</v>
+        <v>67.47177591359871</v>
       </c>
       <c r="R31" t="n">
-        <v>36.23009485057638</v>
+        <v>36.23009485057639</v>
       </c>
       <c r="S31" t="n">
         <v>14.04227493500908</v>
@@ -33429,10 +33429,10 @@
         <v>283.4717235844182</v>
       </c>
       <c r="M32" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413509</v>
       </c>
       <c r="N32" t="n">
-        <v>320.5206870299364</v>
+        <v>320.5206870299365</v>
       </c>
       <c r="O32" t="n">
         <v>302.6585958657487</v>
@@ -33441,16 +33441,16 @@
         <v>258.3121093173253</v>
       </c>
       <c r="Q32" t="n">
-        <v>193.9816364255617</v>
+        <v>193.9816364255618</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8376703047048</v>
+        <v>112.8376703047049</v>
       </c>
       <c r="S32" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798778</v>
       </c>
       <c r="T32" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345756</v>
       </c>
       <c r="U32" t="n">
         <v>0.1437050703341314</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226731</v>
       </c>
       <c r="H33" t="n">
-        <v>9.282322289250553</v>
+        <v>9.282322289250555</v>
       </c>
       <c r="I33" t="n">
         <v>33.09093095849993</v>
       </c>
       <c r="J33" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325441</v>
       </c>
       <c r="K33" t="n">
         <v>155.1985738979735</v>
@@ -33514,10 +33514,10 @@
         <v>249.9693140010302</v>
       </c>
       <c r="O33" t="n">
-        <v>228.6730868414962</v>
+        <v>228.6730868414963</v>
       </c>
       <c r="P33" t="n">
-        <v>183.5303123657541</v>
+        <v>183.5303123657542</v>
       </c>
       <c r="Q33" t="n">
         <v>122.6851534542907</v>
@@ -33532,7 +33532,7 @@
         <v>3.873957395014194</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06323107826464956</v>
+        <v>0.06323107826464958</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019821</v>
       </c>
       <c r="H34" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879446</v>
       </c>
       <c r="I34" t="n">
         <v>24.23153129108507</v>
       </c>
       <c r="J34" t="n">
-        <v>56.96753895126012</v>
+        <v>56.96753895126013</v>
       </c>
       <c r="K34" t="n">
         <v>93.61516623339389</v>
       </c>
       <c r="L34" t="n">
-        <v>119.7951822050801</v>
+        <v>119.7951822050802</v>
       </c>
       <c r="M34" t="n">
         <v>126.3072231112998</v>
@@ -33596,13 +33596,13 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P34" t="n">
-        <v>97.45353455157058</v>
+        <v>97.4535345515706</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.47177591359869</v>
+        <v>67.47177591359871</v>
       </c>
       <c r="R34" t="n">
-        <v>36.23009485057638</v>
+        <v>36.23009485057639</v>
       </c>
       <c r="S34" t="n">
         <v>14.04227493500908</v>
@@ -33666,10 +33666,10 @@
         <v>283.4717235844182</v>
       </c>
       <c r="M35" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413509</v>
       </c>
       <c r="N35" t="n">
-        <v>320.5206870299364</v>
+        <v>320.5206870299365</v>
       </c>
       <c r="O35" t="n">
         <v>302.6585958657487</v>
@@ -33678,16 +33678,16 @@
         <v>258.3121093173253</v>
       </c>
       <c r="Q35" t="n">
-        <v>193.9816364255617</v>
+        <v>193.9816364255618</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8376703047048</v>
+        <v>112.8376703047049</v>
       </c>
       <c r="S35" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798778</v>
       </c>
       <c r="T35" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345756</v>
       </c>
       <c r="U35" t="n">
         <v>0.1437050703341314</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226731</v>
       </c>
       <c r="H36" t="n">
-        <v>9.282322289250553</v>
+        <v>9.282322289250555</v>
       </c>
       <c r="I36" t="n">
         <v>33.09093095849993</v>
       </c>
       <c r="J36" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325441</v>
       </c>
       <c r="K36" t="n">
         <v>155.1985738979735</v>
@@ -33751,10 +33751,10 @@
         <v>249.9693140010302</v>
       </c>
       <c r="O36" t="n">
-        <v>228.6730868414962</v>
+        <v>228.6730868414963</v>
       </c>
       <c r="P36" t="n">
-        <v>183.5303123657541</v>
+        <v>183.5303123657542</v>
       </c>
       <c r="Q36" t="n">
         <v>122.6851534542907</v>
@@ -33769,7 +33769,7 @@
         <v>3.873957395014194</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06323107826464956</v>
+        <v>0.06323107826464958</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019821</v>
       </c>
       <c r="H37" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879446</v>
       </c>
       <c r="I37" t="n">
         <v>24.23153129108507</v>
       </c>
       <c r="J37" t="n">
-        <v>56.96753895126012</v>
+        <v>56.96753895126013</v>
       </c>
       <c r="K37" t="n">
         <v>93.61516623339389</v>
       </c>
       <c r="L37" t="n">
-        <v>119.7951822050801</v>
+        <v>119.7951822050802</v>
       </c>
       <c r="M37" t="n">
         <v>126.3072231112998</v>
@@ -33833,13 +33833,13 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P37" t="n">
-        <v>97.45353455157058</v>
+        <v>97.4535345515706</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.47177591359869</v>
+        <v>67.47177591359871</v>
       </c>
       <c r="R37" t="n">
-        <v>36.23009485057638</v>
+        <v>36.23009485057639</v>
       </c>
       <c r="S37" t="n">
         <v>14.04227493500908</v>
@@ -33903,10 +33903,10 @@
         <v>283.4717235844182</v>
       </c>
       <c r="M38" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413509</v>
       </c>
       <c r="N38" t="n">
-        <v>320.5206870299364</v>
+        <v>320.5206870299365</v>
       </c>
       <c r="O38" t="n">
         <v>302.6585958657487</v>
@@ -33915,16 +33915,16 @@
         <v>258.3121093173253</v>
       </c>
       <c r="Q38" t="n">
-        <v>193.9816364255617</v>
+        <v>193.9816364255618</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8376703047048</v>
+        <v>112.8376703047049</v>
       </c>
       <c r="S38" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798778</v>
       </c>
       <c r="T38" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345756</v>
       </c>
       <c r="U38" t="n">
         <v>0.1437050703341314</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226731</v>
       </c>
       <c r="H39" t="n">
-        <v>9.282322289250553</v>
+        <v>9.282322289250555</v>
       </c>
       <c r="I39" t="n">
         <v>33.09093095849993</v>
       </c>
       <c r="J39" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325441</v>
       </c>
       <c r="K39" t="n">
         <v>155.1985738979735</v>
@@ -33988,10 +33988,10 @@
         <v>249.9693140010302</v>
       </c>
       <c r="O39" t="n">
-        <v>228.6730868414962</v>
+        <v>228.6730868414963</v>
       </c>
       <c r="P39" t="n">
-        <v>183.5303123657541</v>
+        <v>183.5303123657542</v>
       </c>
       <c r="Q39" t="n">
         <v>122.6851534542907</v>
@@ -34006,7 +34006,7 @@
         <v>3.873957395014194</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06323107826464956</v>
+        <v>0.06323107826464958</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019821</v>
       </c>
       <c r="H40" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879446</v>
       </c>
       <c r="I40" t="n">
         <v>24.23153129108507</v>
       </c>
       <c r="J40" t="n">
-        <v>56.96753895126012</v>
+        <v>56.96753895126013</v>
       </c>
       <c r="K40" t="n">
         <v>93.61516623339389</v>
       </c>
       <c r="L40" t="n">
-        <v>119.7951822050801</v>
+        <v>119.7951822050802</v>
       </c>
       <c r="M40" t="n">
         <v>126.3072231112998</v>
@@ -34070,13 +34070,13 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P40" t="n">
-        <v>97.45353455157058</v>
+        <v>97.4535345515706</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.47177591359869</v>
+        <v>67.47177591359871</v>
       </c>
       <c r="R40" t="n">
-        <v>36.23009485057638</v>
+        <v>36.23009485057639</v>
       </c>
       <c r="S40" t="n">
         <v>14.04227493500908</v>
@@ -34140,10 +34140,10 @@
         <v>283.4717235844182</v>
       </c>
       <c r="M41" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413509</v>
       </c>
       <c r="N41" t="n">
-        <v>320.5206870299364</v>
+        <v>320.5206870299365</v>
       </c>
       <c r="O41" t="n">
         <v>302.6585958657487</v>
@@ -34152,16 +34152,16 @@
         <v>258.3121093173253</v>
       </c>
       <c r="Q41" t="n">
-        <v>193.9816364255617</v>
+        <v>193.9816364255618</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8376703047048</v>
+        <v>112.8376703047049</v>
       </c>
       <c r="S41" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798778</v>
       </c>
       <c r="T41" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345756</v>
       </c>
       <c r="U41" t="n">
         <v>0.1437050703341314</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226731</v>
       </c>
       <c r="H42" t="n">
-        <v>9.282322289250553</v>
+        <v>9.282322289250555</v>
       </c>
       <c r="I42" t="n">
         <v>33.09093095849993</v>
       </c>
       <c r="J42" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325441</v>
       </c>
       <c r="K42" t="n">
         <v>155.1985738979735</v>
@@ -34225,10 +34225,10 @@
         <v>249.9693140010302</v>
       </c>
       <c r="O42" t="n">
-        <v>228.6730868414962</v>
+        <v>228.6730868414963</v>
       </c>
       <c r="P42" t="n">
-        <v>183.5303123657541</v>
+        <v>183.5303123657542</v>
       </c>
       <c r="Q42" t="n">
         <v>122.6851534542907</v>
@@ -34243,7 +34243,7 @@
         <v>3.873957395014194</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06323107826464956</v>
+        <v>0.06323107826464958</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019821</v>
       </c>
       <c r="H43" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879446</v>
       </c>
       <c r="I43" t="n">
         <v>24.23153129108507</v>
       </c>
       <c r="J43" t="n">
-        <v>56.96753895126012</v>
+        <v>56.96753895126013</v>
       </c>
       <c r="K43" t="n">
         <v>93.61516623339389</v>
       </c>
       <c r="L43" t="n">
-        <v>119.7951822050801</v>
+        <v>119.7951822050802</v>
       </c>
       <c r="M43" t="n">
         <v>126.3072231112998</v>
@@ -34307,13 +34307,13 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P43" t="n">
-        <v>97.45353455157058</v>
+        <v>97.4535345515706</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.47177591359869</v>
+        <v>67.47177591359871</v>
       </c>
       <c r="R43" t="n">
-        <v>36.23009485057638</v>
+        <v>36.23009485057639</v>
       </c>
       <c r="S43" t="n">
         <v>14.04227493500908</v>
@@ -34377,10 +34377,10 @@
         <v>283.4717235844182</v>
       </c>
       <c r="M44" t="n">
-        <v>315.4169116413508</v>
+        <v>315.4169116413509</v>
       </c>
       <c r="N44" t="n">
-        <v>320.5206870299364</v>
+        <v>320.5206870299365</v>
       </c>
       <c r="O44" t="n">
         <v>302.6585958657487</v>
@@ -34389,16 +34389,16 @@
         <v>258.3121093173253</v>
       </c>
       <c r="Q44" t="n">
-        <v>193.9816364255617</v>
+        <v>193.9816364255618</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8376703047048</v>
+        <v>112.8376703047049</v>
       </c>
       <c r="S44" t="n">
-        <v>40.93349112798777</v>
+        <v>40.93349112798778</v>
       </c>
       <c r="T44" t="n">
-        <v>7.863361817345755</v>
+        <v>7.863361817345756</v>
       </c>
       <c r="U44" t="n">
         <v>0.1437050703341314</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.961112389622673</v>
+        <v>0.9611123896226731</v>
       </c>
       <c r="H45" t="n">
-        <v>9.282322289250553</v>
+        <v>9.282322289250555</v>
       </c>
       <c r="I45" t="n">
         <v>33.09093095849993</v>
       </c>
       <c r="J45" t="n">
-        <v>90.80404379325439</v>
+        <v>90.80404379325441</v>
       </c>
       <c r="K45" t="n">
         <v>155.1985738979735</v>
@@ -34462,10 +34462,10 @@
         <v>249.9693140010302</v>
       </c>
       <c r="O45" t="n">
-        <v>228.6730868414962</v>
+        <v>228.6730868414963</v>
       </c>
       <c r="P45" t="n">
-        <v>183.5303123657541</v>
+        <v>183.5303123657542</v>
       </c>
       <c r="Q45" t="n">
         <v>122.6851534542907</v>
@@ -34480,7 +34480,7 @@
         <v>3.873957395014194</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06323107826464956</v>
+        <v>0.06323107826464958</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.805764341601982</v>
+        <v>0.8057643416019821</v>
       </c>
       <c r="H46" t="n">
-        <v>7.163977509879445</v>
+        <v>7.163977509879446</v>
       </c>
       <c r="I46" t="n">
         <v>24.23153129108507</v>
       </c>
       <c r="J46" t="n">
-        <v>56.96753895126012</v>
+        <v>56.96753895126013</v>
       </c>
       <c r="K46" t="n">
         <v>93.61516623339389</v>
       </c>
       <c r="L46" t="n">
-        <v>119.7951822050801</v>
+        <v>119.7951822050802</v>
       </c>
       <c r="M46" t="n">
         <v>126.3072231112998</v>
@@ -34544,13 +34544,13 @@
         <v>113.8911271202511</v>
       </c>
       <c r="P46" t="n">
-        <v>97.45353455157058</v>
+        <v>97.4535345515706</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.47177591359869</v>
+        <v>67.47177591359871</v>
       </c>
       <c r="R46" t="n">
-        <v>36.23009485057638</v>
+        <v>36.23009485057639</v>
       </c>
       <c r="S46" t="n">
         <v>14.04227493500908</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>298.5707343919827</v>
+        <v>34.78001472354759</v>
       </c>
       <c r="K11" t="n">
-        <v>85.43939482720361</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="L11" t="n">
         <v>130.2235538539265</v>
       </c>
       <c r="M11" t="n">
-        <v>165.6918600436235</v>
+        <v>243.8938851119074</v>
       </c>
       <c r="N11" t="n">
-        <v>171.4021956921523</v>
+        <v>171.4021956921524</v>
       </c>
       <c r="O11" t="n">
+        <v>153.0947584416523</v>
+      </c>
+      <c r="P11" t="n">
         <v>568.5298164676335</v>
       </c>
-      <c r="P11" t="n">
-        <v>450.5964854819311</v>
-      </c>
       <c r="Q11" t="n">
-        <v>380.6943234366208</v>
+        <v>380.6943234366209</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>118.6232884425135</v>
       </c>
       <c r="M12" t="n">
-        <v>568.5298164676335</v>
+        <v>164.7920287584871</v>
       </c>
       <c r="N12" t="n">
-        <v>268.937685948954</v>
+        <v>164.5972011468636</v>
       </c>
       <c r="O12" t="n">
         <v>568.5298164676335</v>
       </c>
       <c r="P12" t="n">
-        <v>96.44694754643947</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="Q12" t="n">
         <v>359.4175691663013</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.99540359004252</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>26.89305147910105</v>
+        <v>26.89305147910106</v>
       </c>
       <c r="K13" t="n">
         <v>176.2768239202039</v>
@@ -35588,7 +35588,7 @@
         <v>218.5405706895287</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.92853992375117</v>
+        <v>70.92853992375119</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>298.5707343919827</v>
       </c>
       <c r="K14" t="n">
-        <v>85.43939482720361</v>
+        <v>85.43939482720364</v>
       </c>
       <c r="L14" t="n">
         <v>568.5298164676335</v>
       </c>
       <c r="M14" t="n">
+        <v>165.6918600436236</v>
+      </c>
+      <c r="N14" t="n">
+        <v>171.4021956921524</v>
+      </c>
+      <c r="O14" t="n">
         <v>568.5298164676335</v>
       </c>
-      <c r="N14" t="n">
-        <v>344.2655577880273</v>
-      </c>
-      <c r="O14" t="n">
-        <v>153.0947584416523</v>
-      </c>
       <c r="P14" t="n">
-        <v>108.0106620764001</v>
+        <v>268.2769225703038</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.48293800716957</v>
+        <v>49.48293800716959</v>
       </c>
       <c r="R14" t="n">
-        <v>75.22468572737156</v>
+        <v>75.22468572737158</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>8.359586459921047</v>
+        <v>205.0616015909588</v>
       </c>
       <c r="K15" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L15" t="n">
-        <v>118.6232884425135</v>
+        <v>152.2569986024624</v>
       </c>
       <c r="M15" t="n">
         <v>151.1368373739417</v>
       </c>
       <c r="N15" t="n">
-        <v>410.9498112524896</v>
+        <v>164.5972011468636</v>
       </c>
       <c r="O15" t="n">
-        <v>568.5298164676335</v>
+        <v>135.9855279526074</v>
       </c>
       <c r="P15" t="n">
         <v>568.5298164676335</v>
@@ -35749,7 +35749,7 @@
         <v>359.4175691663013</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.99540359004252</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>26.89305147910105</v>
+        <v>26.89305147910106</v>
       </c>
       <c r="K16" t="n">
         <v>176.2768239202039</v>
@@ -35825,7 +35825,7 @@
         <v>218.5405706895287</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.92853992375117</v>
+        <v>70.92853992375119</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>34.78001472354757</v>
+        <v>34.78001472354759</v>
       </c>
       <c r="K17" t="n">
-        <v>85.43939482720361</v>
+        <v>85.43939482720364</v>
       </c>
       <c r="L17" t="n">
-        <v>267.8459051578527</v>
+        <v>568.5298164676334</v>
       </c>
       <c r="M17" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676334</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676334</v>
       </c>
       <c r="O17" t="n">
-        <v>568.5298164676335</v>
+        <v>153.0947584416523</v>
       </c>
       <c r="P17" t="n">
         <v>108.0106620764001</v>
       </c>
       <c r="Q17" t="n">
-        <v>49.48293800716957</v>
+        <v>164.2340847233694</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>205.0616015909588</v>
+        <v>8.359586459921061</v>
       </c>
       <c r="K18" t="n">
         <v>478.1674083042628</v>
       </c>
       <c r="L18" t="n">
-        <v>152.2569986024625</v>
+        <v>280.1306976764412</v>
       </c>
       <c r="M18" t="n">
         <v>151.1368373739417</v>
       </c>
       <c r="N18" t="n">
-        <v>164.5972011468635</v>
+        <v>164.5972011468636</v>
       </c>
       <c r="O18" t="n">
-        <v>135.9855279526074</v>
+        <v>568.5298164676334</v>
       </c>
       <c r="P18" t="n">
-        <v>568.5298164676335</v>
+        <v>568.5298164676334</v>
       </c>
       <c r="Q18" t="n">
-        <v>359.4175691663013</v>
+        <v>31.69700029837671</v>
       </c>
       <c r="R18" t="n">
-        <v>35.99540359004251</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>26.89305147910105</v>
+        <v>26.89305147910106</v>
       </c>
       <c r="K19" t="n">
         <v>176.2768239202039</v>
@@ -36062,7 +36062,7 @@
         <v>218.5405706895287</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.92853992375117</v>
+        <v>70.92853992375119</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>298.5707343919827</v>
+        <v>34.78001472354759</v>
       </c>
       <c r="K20" t="n">
-        <v>85.43939482720361</v>
+        <v>85.43939482720364</v>
       </c>
       <c r="L20" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676334</v>
       </c>
       <c r="M20" t="n">
-        <v>485.4064788614294</v>
+        <v>568.5298164676334</v>
       </c>
       <c r="N20" t="n">
-        <v>171.4021956921523</v>
+        <v>568.5298164676334</v>
       </c>
       <c r="O20" t="n">
         <v>153.0947584416523</v>
@@ -36141,7 +36141,7 @@
         <v>108.0106620764001</v>
       </c>
       <c r="Q20" t="n">
-        <v>380.6943234366208</v>
+        <v>164.2340847233694</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>478.1674083042628</v>
       </c>
       <c r="L21" t="n">
-        <v>568.5298164676336</v>
+        <v>118.6232884425135</v>
       </c>
       <c r="M21" t="n">
-        <v>151.1368373739417</v>
+        <v>252.9208011343142</v>
       </c>
       <c r="N21" t="n">
-        <v>256.4026557929296</v>
+        <v>568.5298164676334</v>
       </c>
       <c r="O21" t="n">
         <v>135.9855279526074</v>
       </c>
       <c r="P21" t="n">
-        <v>96.44694754643947</v>
+        <v>96.4469475464395</v>
       </c>
       <c r="Q21" t="n">
         <v>359.4175691663013</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.99540359004252</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>26.89305147910105</v>
+        <v>26.89305147910106</v>
       </c>
       <c r="K22" t="n">
         <v>176.2768239202039</v>
@@ -36299,7 +36299,7 @@
         <v>218.5405706895287</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.92853992375117</v>
+        <v>70.92853992375119</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>34.78001472354757</v>
+        <v>298.5707343919827</v>
       </c>
       <c r="K23" t="n">
         <v>568.5298164676336</v>
       </c>
       <c r="L23" t="n">
-        <v>568.5298164676336</v>
+        <v>405.1540136450091</v>
       </c>
       <c r="M23" t="n">
-        <v>568.5298164676336</v>
+        <v>165.6918600436236</v>
       </c>
       <c r="N23" t="n">
-        <v>200.1905415434044</v>
+        <v>171.4021956921524</v>
       </c>
       <c r="O23" t="n">
         <v>153.0947584416523</v>
@@ -36378,7 +36378,7 @@
         <v>108.0106620764001</v>
       </c>
       <c r="Q23" t="n">
-        <v>49.48293800716957</v>
+        <v>380.6943234366209</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8.359586459921047</v>
+        <v>205.0616015909588</v>
       </c>
       <c r="K24" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L24" t="n">
-        <v>118.6232884425135</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="M24" t="n">
-        <v>285.2819974366802</v>
+        <v>206.9468884299648</v>
       </c>
       <c r="N24" t="n">
-        <v>568.5298164676336</v>
+        <v>164.5972011468636</v>
       </c>
       <c r="O24" t="n">
-        <v>568.5298164676336</v>
+        <v>135.9855279526074</v>
       </c>
       <c r="P24" t="n">
-        <v>568.5298164676336</v>
+        <v>96.4469475464395</v>
       </c>
       <c r="Q24" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R24" t="n">
-        <v>35.99540359004251</v>
+        <v>35.99540359004252</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>26.89305147910105</v>
+        <v>26.89305147910106</v>
       </c>
       <c r="K25" t="n">
         <v>176.2768239202039</v>
@@ -36536,7 +36536,7 @@
         <v>218.5405706895287</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.92853992375117</v>
+        <v>70.92853992375119</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>34.78001472354757</v>
+        <v>105.4127176789087</v>
       </c>
       <c r="K26" t="n">
-        <v>568.5298164676336</v>
+        <v>85.43939482720364</v>
       </c>
       <c r="L26" t="n">
-        <v>181.8831042929042</v>
+        <v>130.2235538539265</v>
       </c>
       <c r="M26" t="n">
-        <v>568.5298164676336</v>
+        <v>165.6918600436236</v>
       </c>
       <c r="N26" t="n">
-        <v>171.4021956921523</v>
+        <v>171.4021956921524</v>
       </c>
       <c r="O26" t="n">
         <v>568.5298164676336</v>
       </c>
       <c r="P26" t="n">
-        <v>108.0106620764001</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="Q26" t="n">
-        <v>49.48293800716957</v>
+        <v>380.6943234366209</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>75.22468572737158</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>205.0616015909588</v>
       </c>
       <c r="K27" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L27" t="n">
-        <v>118.6232884425135</v>
+        <v>188.2524021925053</v>
       </c>
       <c r="M27" t="n">
         <v>151.1368373739417</v>
       </c>
       <c r="N27" t="n">
-        <v>541.9683649893771</v>
+        <v>164.5972011468636</v>
       </c>
       <c r="O27" t="n">
-        <v>568.5298164676336</v>
+        <v>135.9855279526074</v>
       </c>
       <c r="P27" t="n">
         <v>568.5298164676336</v>
       </c>
       <c r="Q27" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>26.89305147910105</v>
+        <v>26.89305147910106</v>
       </c>
       <c r="K28" t="n">
         <v>176.2768239202039</v>
@@ -36773,7 +36773,7 @@
         <v>218.5405706895287</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.92853992375117</v>
+        <v>70.92853992375119</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,13 +36837,13 @@
         <v>568.5298164676336</v>
       </c>
       <c r="L29" t="n">
-        <v>275.8462446832272</v>
+        <v>130.2235538539265</v>
       </c>
       <c r="M29" t="n">
-        <v>165.6918600436235</v>
+        <v>165.6918600436236</v>
       </c>
       <c r="N29" t="n">
-        <v>171.4021956921523</v>
+        <v>171.4021956921524</v>
       </c>
       <c r="O29" t="n">
         <v>153.0947584416523</v>
@@ -36852,10 +36852,10 @@
         <v>568.5298164676336</v>
       </c>
       <c r="Q29" t="n">
-        <v>49.48293800716957</v>
+        <v>119.8809431090986</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>75.22468572737158</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>8.359586459921047</v>
+        <v>205.0616015909588</v>
       </c>
       <c r="K30" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L30" t="n">
-        <v>568.5298164676336</v>
+        <v>118.6232884425135</v>
       </c>
       <c r="M30" t="n">
         <v>151.1368373739417</v>
       </c>
       <c r="N30" t="n">
+        <v>164.5972011468636</v>
+      </c>
+      <c r="O30" t="n">
+        <v>169.619238112556</v>
+      </c>
+      <c r="P30" t="n">
         <v>568.5298164676336</v>
-      </c>
-      <c r="O30" t="n">
-        <v>397.1307485585208</v>
-      </c>
-      <c r="P30" t="n">
-        <v>96.44694754643947</v>
       </c>
       <c r="Q30" t="n">
         <v>359.4175691663013</v>
       </c>
       <c r="R30" t="n">
-        <v>35.99540359004251</v>
+        <v>35.99540359004252</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>26.89305147910105</v>
+        <v>26.89305147910106</v>
       </c>
       <c r="K31" t="n">
         <v>176.2768239202039</v>
@@ -37010,7 +37010,7 @@
         <v>218.5405706895287</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.92853992375117</v>
+        <v>70.92853992375119</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>34.78001472354757</v>
+        <v>34.78001472354759</v>
       </c>
       <c r="K32" t="n">
-        <v>568.5298164676336</v>
+        <v>85.43939482720364</v>
       </c>
       <c r="L32" t="n">
-        <v>568.5298164676336</v>
+        <v>267.8459051578528</v>
       </c>
       <c r="M32" t="n">
         <v>568.5298164676336</v>
       </c>
       <c r="N32" t="n">
-        <v>171.4021956921523</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="O32" t="n">
-        <v>181.8831042929043</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="P32" t="n">
         <v>108.0106620764001</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.48293800716957</v>
+        <v>49.48293800716959</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>205.0616015909588</v>
       </c>
       <c r="K33" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L33" t="n">
-        <v>118.6232884425135</v>
+        <v>152.2569986024621</v>
       </c>
       <c r="M33" t="n">
-        <v>268.9376859489536</v>
+        <v>151.1368373739417</v>
       </c>
       <c r="N33" t="n">
+        <v>164.5972011468636</v>
+      </c>
+      <c r="O33" t="n">
+        <v>135.9855279526074</v>
+      </c>
+      <c r="P33" t="n">
         <v>568.5298164676336</v>
-      </c>
-      <c r="O33" t="n">
-        <v>568.5298164676336</v>
-      </c>
-      <c r="P33" t="n">
-        <v>96.44694754643947</v>
       </c>
       <c r="Q33" t="n">
         <v>359.4175691663013</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.99540359004252</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>26.89305147910105</v>
+        <v>26.89305147910106</v>
       </c>
       <c r="K34" t="n">
         <v>176.2768239202039</v>
@@ -37247,7 +37247,7 @@
         <v>218.5405706895287</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.92853992375117</v>
+        <v>70.92853992375119</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>34.78001472354757</v>
+        <v>298.5707343919827</v>
       </c>
       <c r="K35" t="n">
-        <v>85.43939482720361</v>
+        <v>568.5298164676336</v>
       </c>
       <c r="L35" t="n">
         <v>130.2235538539265</v>
       </c>
       <c r="M35" t="n">
-        <v>165.6918600436235</v>
+        <v>165.6918600436236</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2595843748852</v>
+        <v>171.4021956921524</v>
       </c>
       <c r="O35" t="n">
-        <v>568.5298164676336</v>
+        <v>352.8005325053633</v>
       </c>
       <c r="P35" t="n">
-        <v>568.5298164676336</v>
+        <v>108.0106620764001</v>
       </c>
       <c r="Q35" t="n">
-        <v>380.6943234366208</v>
+        <v>380.6943234366209</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>75.22468572737158</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8.359586459921047</v>
+        <v>8.359586459921061</v>
       </c>
       <c r="K36" t="n">
         <v>65.60163856464014</v>
       </c>
       <c r="L36" t="n">
-        <v>118.6232884425135</v>
+        <v>393.5875717423959</v>
       </c>
       <c r="M36" t="n">
+        <v>151.1368373739417</v>
+      </c>
+      <c r="N36" t="n">
         <v>568.5298164676336</v>
       </c>
-      <c r="N36" t="n">
-        <v>321.2774010267229</v>
-      </c>
       <c r="O36" t="n">
-        <v>568.5298164676336</v>
+        <v>135.9855279526074</v>
       </c>
       <c r="P36" t="n">
         <v>568.5298164676336</v>
       </c>
       <c r="Q36" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>26.89305147910105</v>
+        <v>26.89305147910106</v>
       </c>
       <c r="K37" t="n">
         <v>176.2768239202039</v>
@@ -37484,7 +37484,7 @@
         <v>218.5405706895287</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.92853992375117</v>
+        <v>70.92853992375119</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>34.78001472354757</v>
+        <v>298.5707343919827</v>
       </c>
       <c r="K38" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="L38" t="n">
-        <v>568.5298164676336</v>
+        <v>130.2235538539265</v>
       </c>
       <c r="M38" t="n">
-        <v>200.1905415434044</v>
+        <v>165.6918600436236</v>
       </c>
       <c r="N38" t="n">
-        <v>568.5298164676336</v>
+        <v>171.4021956921524</v>
       </c>
       <c r="O38" t="n">
-        <v>153.0947584416523</v>
+        <v>352.8005325053629</v>
       </c>
       <c r="P38" t="n">
         <v>108.0106620764001</v>
       </c>
       <c r="Q38" t="n">
-        <v>49.48293800716957</v>
+        <v>380.6943234366209</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>75.22468572737158</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8.359586459921047</v>
+        <v>205.0616015909588</v>
       </c>
       <c r="K39" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L39" t="n">
-        <v>568.5298164676336</v>
+        <v>152.2569986024624</v>
       </c>
       <c r="M39" t="n">
-        <v>568.5298164676336</v>
+        <v>151.1368373739417</v>
       </c>
       <c r="N39" t="n">
-        <v>307.458338332754</v>
+        <v>164.5972011468636</v>
       </c>
       <c r="O39" t="n">
-        <v>568.5298164676336</v>
+        <v>135.9855279526074</v>
       </c>
       <c r="P39" t="n">
-        <v>96.44694754643947</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="Q39" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R39" t="n">
-        <v>35.99540359004251</v>
+        <v>35.99540359004252</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>26.89305147910105</v>
+        <v>26.89305147910106</v>
       </c>
       <c r="K40" t="n">
         <v>176.2768239202039</v>
@@ -37721,7 +37721,7 @@
         <v>218.5405706895287</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.92853992375117</v>
+        <v>70.92853992375119</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>34.78001472354757</v>
+        <v>34.78001472354759</v>
       </c>
       <c r="K41" t="n">
-        <v>85.43939482720361</v>
+        <v>85.43939482720364</v>
       </c>
       <c r="L41" t="n">
         <v>130.2235538539265</v>
       </c>
       <c r="M41" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="N41" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="O41" t="n">
         <v>153.0947584416523</v>
@@ -37800,10 +37800,10 @@
         <v>254.6320002494849</v>
       </c>
       <c r="Q41" t="n">
-        <v>380.6943234366208</v>
+        <v>380.6943234366209</v>
       </c>
       <c r="R41" t="n">
-        <v>75.22468572737156</v>
+        <v>75.22468572737158</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>8.359586459921047</v>
+        <v>205.0616015909588</v>
       </c>
       <c r="K42" t="n">
-        <v>65.60163856464014</v>
+        <v>79.25682994918567</v>
       </c>
       <c r="L42" t="n">
         <v>118.6232884425135</v>
       </c>
       <c r="M42" t="n">
-        <v>361.4940438895251</v>
+        <v>151.1368373739417</v>
       </c>
       <c r="N42" t="n">
-        <v>164.5972011468635</v>
+        <v>164.5972011468636</v>
       </c>
       <c r="O42" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="P42" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="Q42" t="n">
         <v>359.4175691663013</v>
       </c>
       <c r="R42" t="n">
-        <v>35.99540359004251</v>
+        <v>35.99540359004252</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>26.89305147910105</v>
+        <v>26.89305147910106</v>
       </c>
       <c r="K43" t="n">
         <v>176.2768239202039</v>
@@ -37958,7 +37958,7 @@
         <v>218.5405706895287</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.92853992375117</v>
+        <v>70.92853992375119</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>34.78001472354757</v>
+        <v>298.5707343919827</v>
       </c>
       <c r="K44" t="n">
-        <v>85.43939482720361</v>
+        <v>85.43939482720364</v>
       </c>
       <c r="L44" t="n">
         <v>130.2235538539265</v>
       </c>
       <c r="M44" t="n">
-        <v>568.5298164676336</v>
+        <v>165.6918600436236</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5298164676336</v>
+        <v>171.4021956921524</v>
       </c>
       <c r="O44" t="n">
-        <v>153.0947584416523</v>
+        <v>450.596485481931</v>
       </c>
       <c r="P44" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="Q44" t="n">
-        <v>142.0211929458439</v>
+        <v>380.6943234366209</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>205.0616015909588</v>
       </c>
       <c r="K45" t="n">
-        <v>65.60163856464014</v>
+        <v>478.1674083042628</v>
       </c>
       <c r="L45" t="n">
-        <v>568.5298164676336</v>
+        <v>568.5298164676335</v>
       </c>
       <c r="M45" t="n">
         <v>151.1368373739417</v>
       </c>
       <c r="N45" t="n">
-        <v>164.5972011468635</v>
+        <v>164.5972011468636</v>
       </c>
       <c r="O45" t="n">
-        <v>495.9944522850269</v>
+        <v>135.9855279526074</v>
       </c>
       <c r="P45" t="n">
-        <v>568.5298164676336</v>
+        <v>152.2569986024624</v>
       </c>
       <c r="Q45" t="n">
-        <v>31.69700029837669</v>
+        <v>359.4175691663013</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.99540359004252</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>26.89305147910105</v>
+        <v>26.89305147910106</v>
       </c>
       <c r="K46" t="n">
         <v>176.2768239202039</v>
@@ -38195,7 +38195,7 @@
         <v>218.5405706895287</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.92853992375117</v>
+        <v>70.92853992375119</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
